--- a/data_processed/20250815/BTCUSDQPROBABILITY_20250815.xlsx
+++ b/data_processed/20250815/BTCUSDQPROBABILITY_20250815.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1643"/>
+  <dimension ref="A1:H1659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44860,19 +44860,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1481" t="n">
-        <v>1.387778780781446e-16</v>
+        <v>0.002000000000000149</v>
       </c>
       <c r="E1481" t="n">
-        <v>117138.1201915566</v>
+        <v>117138.1181932321</v>
       </c>
       <c r="F1481" t="n">
-        <v>0</v>
+        <v>22.66334941275128</v>
       </c>
       <c r="G1481" t="n">
-        <v>7.434047273082657e-10</v>
+        <v>9.830588958577972e-06</v>
       </c>
       <c r="H1481" t="n">
-        <v>1677767.241671313</v>
+        <v>0.001539487534935497</v>
       </c>
     </row>
     <row r="1482">
@@ -44890,19 +44890,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1482" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.003000000000000149</v>
       </c>
       <c r="E1482" t="n">
-        <v>117138.0202771296</v>
+        <v>117138.1171940729</v>
       </c>
       <c r="F1482" t="n">
-        <v>19.49573925464453</v>
+        <v>22.35265194549044</v>
       </c>
       <c r="G1482" t="n">
-        <v>3.347363868480324e-05</v>
+        <v>1.11617409740352e-05</v>
       </c>
       <c r="H1482" t="n">
-        <v>0.000104840614781736</v>
+        <v>0.001165298855786429</v>
       </c>
     </row>
     <row r="1483">
@@ -44920,19 +44920,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1483" t="n">
-        <v>0.2000000000000001</v>
+        <v>0.004000000000000149</v>
       </c>
       <c r="E1483" t="n">
-        <v>117137.9203639377</v>
+        <v>117138.1161949148</v>
       </c>
       <c r="F1483" t="n">
-        <v>18.88911582681157</v>
+        <v>22.13027362661315</v>
       </c>
       <c r="G1483" t="n">
-        <v>4.15897757269634e-05</v>
+        <v>1.221414839005331e-05</v>
       </c>
       <c r="H1483" t="n">
-        <v>6.513032086094821e-05</v>
+        <v>0.00095637856874957</v>
       </c>
     </row>
     <row r="1484">
@@ -44950,19 +44950,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1484" t="n">
-        <v>0.3000000000000002</v>
+        <v>0.005000000000000149</v>
       </c>
       <c r="E1484" t="n">
-        <v>117137.8204514137</v>
+        <v>117138.1151957578</v>
       </c>
       <c r="F1484" t="n">
-        <v>18.52686270228966</v>
+        <v>21.95617644218553</v>
       </c>
       <c r="G1484" t="n">
-        <v>4.722141326309081e-05</v>
+        <v>1.309832461103417e-05</v>
       </c>
       <c r="H1484" t="n">
-        <v>4.929970958124384e-05</v>
+        <v>0.0008204882760205953</v>
       </c>
     </row>
     <row r="1485">
@@ -44980,19 +44980,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1485" t="n">
-        <v>0.4000000000000001</v>
+        <v>0.006000000000000149</v>
       </c>
       <c r="E1485" t="n">
-        <v>117137.7205393878</v>
+        <v>117138.1141966015</v>
       </c>
       <c r="F1485" t="n">
-        <v>18.26635736859556</v>
+        <v>21.81313041097906</v>
       </c>
       <c r="G1485" t="n">
-        <v>5.167378011415264e-05</v>
+        <v>1.386805623982937e-05</v>
       </c>
       <c r="H1485" t="n">
-        <v>4.04610246160923e-05</v>
+        <v>0.000723920672673211</v>
       </c>
     </row>
     <row r="1486">
@@ -45010,19 +45010,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1486" t="n">
-        <v>0.5000000000000001</v>
+        <v>0.007000000000000149</v>
       </c>
       <c r="E1486" t="n">
-        <v>117137.6206277687</v>
+        <v>117138.113197446</v>
       </c>
       <c r="F1486" t="n">
-        <v>18.06223167371753</v>
+        <v>21.69159086713336</v>
       </c>
       <c r="G1486" t="n">
-        <v>5.541441975320741e-05</v>
+        <v>1.455404000692685e-05</v>
       </c>
       <c r="H1486" t="n">
-        <v>3.471198270020759e-05</v>
+        <v>0.0006511966524088728</v>
       </c>
     </row>
     <row r="1487">
@@ -45040,19 +45040,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1487" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.008000000000000149</v>
       </c>
       <c r="E1487" t="n">
-        <v>117137.5207164977</v>
+        <v>117138.1121982911</v>
       </c>
       <c r="F1487" t="n">
-        <v>17.89409474059018</v>
+        <v>21.58584547274713</v>
       </c>
       <c r="G1487" t="n">
-        <v>5.867088444178648e-05</v>
+        <v>1.517563408691468e-05</v>
       </c>
       <c r="H1487" t="n">
-        <v>3.062654592461759e-05</v>
+        <v>0.000594132752625235</v>
       </c>
     </row>
     <row r="1488">
@@ -45070,19 +45070,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1488" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.00900000000000015</v>
       </c>
       <c r="E1488" t="n">
-        <v>117137.4208055336</v>
+        <v>117138.1111991368</v>
       </c>
       <c r="F1488" t="n">
-        <v>17.7509557418591</v>
+        <v>21.49221684573562</v>
       </c>
       <c r="G1488" t="n">
-        <v>6.157304128570837e-05</v>
+        <v>1.574591839965618e-05</v>
       </c>
       <c r="H1488" t="n">
-        <v>2.754984756452787e-05</v>
+        <v>0.0005479641194896558</v>
       </c>
     </row>
     <row r="1489">
@@ -45100,19 +45100,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1489" t="n">
-        <v>0.8</v>
+        <v>0.01000000000000015</v>
       </c>
       <c r="E1489" t="n">
-        <v>117137.3208948454</v>
+        <v>117138.1101999831</v>
       </c>
       <c r="F1489" t="n">
-        <v>17.62622431300164</v>
+        <v>21.40810189540963</v>
       </c>
       <c r="G1489" t="n">
-        <v>6.420278793556157e-05</v>
+        <v>1.627419080732296e-05</v>
       </c>
       <c r="H1489" t="n">
-        <v>2.513567400472642e-05</v>
+        <v>0.000509713385324193</v>
       </c>
     </row>
     <row r="1490">
@@ -45130,19 +45130,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1490" t="n">
-        <v>0.9</v>
+        <v>0.02000000000000015</v>
       </c>
       <c r="E1490" t="n">
-        <v>117137.2209844086</v>
+        <v>117138.1002084695</v>
       </c>
       <c r="F1490" t="n">
-        <v>17.51562394788555</v>
+        <v>20.84787959208414</v>
       </c>
       <c r="G1490" t="n">
-        <v>6.661546094706312e-05</v>
+        <v>2.022008877456306e-05</v>
       </c>
       <c r="H1490" t="n">
-        <v>2.318244098296143e-05</v>
+        <v>0.0003166501493948533</v>
       </c>
     </row>
     <row r="1491">
@@ -45160,19 +45160,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1491" t="n">
-        <v>1</v>
+        <v>0.03000000000000015</v>
       </c>
       <c r="E1491" t="n">
-        <v>117137.1210742038</v>
+        <v>117138.0902169885</v>
       </c>
       <c r="F1491" t="n">
-        <v>17.416221004623</v>
+        <v>20.51422947596854</v>
       </c>
       <c r="G1491" t="n">
-        <v>6.885039631565398e-05</v>
+        <v>2.295807446783124e-05</v>
       </c>
       <c r="H1491" t="n">
-        <v>2.156418651007428e-05</v>
+        <v>0.0002396849915318614</v>
       </c>
     </row>
     <row r="1492">
@@ -45190,19 +45190,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1492" t="n">
-        <v>2</v>
+        <v>0.04000000000000015</v>
       </c>
       <c r="E1492" t="n">
-        <v>117136.1219822542</v>
+        <v>117138.0802255317</v>
       </c>
       <c r="F1492" t="n">
-        <v>16.75097638765828</v>
+        <v>20.27472447311231</v>
       </c>
       <c r="G1492" t="n">
-        <v>8.554410736292593e-05</v>
+        <v>2.512272314438146e-05</v>
       </c>
       <c r="H1492" t="n">
-        <v>1.339635778968305e-05</v>
+        <v>0.0001967131332994323</v>
       </c>
     </row>
     <row r="1493">
@@ -45220,19 +45220,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1493" t="n">
-        <v>3</v>
+        <v>0.05000000000000016</v>
       </c>
       <c r="E1493" t="n">
-        <v>117135.1229040433</v>
+        <v>117138.0702340946</v>
       </c>
       <c r="F1493" t="n">
-        <v>16.35226966376262</v>
+        <v>20.08732260293989</v>
       </c>
       <c r="G1493" t="n">
-        <v>9.712756501805446e-05</v>
+        <v>2.69413447708092e-05</v>
       </c>
       <c r="H1493" t="n">
-        <v>1.014023176529141e-05</v>
+        <v>0.0001687624805546259</v>
       </c>
     </row>
     <row r="1494">
@@ -45250,19 +45250,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1494" t="n">
-        <v>4</v>
+        <v>0.06000000000000016</v>
       </c>
       <c r="E1494" t="n">
-        <v>117134.1238360771</v>
+        <v>117138.0602426745</v>
       </c>
       <c r="F1494" t="n">
-        <v>16.06484506683022</v>
+        <v>19.93311013905476</v>
       </c>
       <c r="G1494" t="n">
-        <v>0.0001062854347412961</v>
+        <v>2.852457055030313e-05</v>
       </c>
       <c r="H1494" t="n">
-        <v>8.322243083241815e-06</v>
+        <v>0.0001488999319254595</v>
       </c>
     </row>
     <row r="1495">
@@ -45280,19 +45280,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1495" t="n">
-        <v>5</v>
+        <v>0.07000000000000016</v>
       </c>
       <c r="E1495" t="n">
-        <v>117133.1247764774</v>
+        <v>117138.0502512693</v>
       </c>
       <c r="F1495" t="n">
-        <v>15.83922321431638</v>
+        <v>19.80196395099892</v>
       </c>
       <c r="G1495" t="n">
-        <v>0.0001139793853167942</v>
+        <v>2.993553918372527e-05</v>
       </c>
       <c r="H1495" t="n">
-        <v>7.13974894786813e-06</v>
+        <v>0.0001339416608393201</v>
       </c>
     </row>
     <row r="1496">
@@ -45310,19 +45310,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1496" t="n">
-        <v>6</v>
+        <v>0.08000000000000015</v>
       </c>
       <c r="E1496" t="n">
-        <v>117132.1257240396</v>
+        <v>117138.0402598775</v>
       </c>
       <c r="F1496" t="n">
-        <v>15.65308157058873</v>
+        <v>19.68777917132271</v>
       </c>
       <c r="G1496" t="n">
-        <v>0.000120677458582979</v>
+        <v>3.121406761493699e-05</v>
       </c>
       <c r="H1496" t="n">
-        <v>6.299434144417687e-06</v>
+        <v>0.0001222044483049567</v>
       </c>
     </row>
     <row r="1497">
@@ -45340,19 +45340,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1497" t="n">
-        <v>7</v>
+        <v>0.09000000000000015</v>
       </c>
       <c r="E1497" t="n">
-        <v>117131.1266779129</v>
+        <v>117138.0302684979</v>
       </c>
       <c r="F1497" t="n">
-        <v>15.49440666552212</v>
+        <v>19.58660984509248</v>
       </c>
       <c r="G1497" t="n">
-        <v>0.0001266467722496442</v>
+        <v>3.238705933282508e-05</v>
       </c>
       <c r="H1497" t="n">
-        <v>5.666602131649174e-06</v>
+        <v>0.0001127082333321282</v>
       </c>
     </row>
     <row r="1498">
@@ -45370,19 +45370,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1498" t="n">
-        <v>8</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E1498" t="n">
-        <v>117130.1276374594</v>
+        <v>117138.0202771296</v>
       </c>
       <c r="F1498" t="n">
-        <v>15.35597802137149</v>
+        <v>19.49573925464453</v>
       </c>
       <c r="G1498" t="n">
-        <v>0.0001320557778482604</v>
+        <v>3.347363868480324e-05</v>
       </c>
       <c r="H1498" t="n">
-        <v>5.170041814641974e-06</v>
+        <v>0.000104840614781736</v>
       </c>
     </row>
     <row r="1499">
@@ -45400,19 +45400,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1499" t="n">
-        <v>9</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="E1499" t="n">
-        <v>117129.1286021795</v>
+        <v>117137.9203639377</v>
       </c>
       <c r="F1499" t="n">
-        <v>15.23310594300632</v>
+        <v>18.88911582681157</v>
       </c>
       <c r="G1499" t="n">
-        <v>0.0001370182946091699</v>
+        <v>4.15897757269634e-05</v>
       </c>
       <c r="H1499" t="n">
-        <v>4.768290248546486e-06</v>
+        <v>6.513032086094821e-05</v>
       </c>
     </row>
     <row r="1500">
@@ -45430,19 +45430,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1500" t="n">
-        <v>10</v>
+        <v>0.3000000000000002</v>
       </c>
       <c r="E1500" t="n">
-        <v>117128.1295716696</v>
+        <v>117137.8204514137</v>
       </c>
       <c r="F1500" t="n">
-        <v>15.12257788596493</v>
+        <v>18.52686270228966</v>
       </c>
       <c r="G1500" t="n">
-        <v>0.000141615230942154</v>
+        <v>4.722141326309081e-05</v>
       </c>
       <c r="H1500" t="n">
-        <v>4.435438887966904e-06</v>
+        <v>4.929970958124384e-05</v>
       </c>
     </row>
     <row r="1501">
@@ -45460,19 +45460,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1501" t="n">
-        <v>20</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="E1501" t="n">
-        <v>117118.1394742914</v>
+        <v>117137.7205393878</v>
       </c>
       <c r="F1501" t="n">
-        <v>14.38026319109499</v>
+        <v>18.26635736859556</v>
       </c>
       <c r="G1501" t="n">
-        <v>0.0001759517616195162</v>
+        <v>5.167378011415264e-05</v>
       </c>
       <c r="H1501" t="n">
-        <v>2.755435558383784e-06</v>
+        <v>4.04610246160923e-05</v>
       </c>
     </row>
     <row r="1502">
@@ -45490,19 +45490,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1502" t="n">
-        <v>30</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="E1502" t="n">
-        <v>117108.1496594976</v>
+        <v>117137.6206277687</v>
       </c>
       <c r="F1502" t="n">
-        <v>13.93307906797548</v>
+        <v>18.06223167371753</v>
       </c>
       <c r="G1502" t="n">
-        <v>0.0001997772458392302</v>
+        <v>5.541441975320741e-05</v>
       </c>
       <c r="H1502" t="n">
-        <v>2.085697890052976e-06</v>
+        <v>3.471198270020759e-05</v>
       </c>
     </row>
     <row r="1503">
@@ -45520,19 +45520,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1503" t="n">
-        <v>40</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E1503" t="n">
-        <v>117098.1600554225</v>
+        <v>117137.5207164977</v>
       </c>
       <c r="F1503" t="n">
-        <v>13.60960373094266</v>
+        <v>17.89409474059018</v>
       </c>
       <c r="G1503" t="n">
-        <v>0.000218613649189027</v>
+        <v>5.867088444178648e-05</v>
       </c>
       <c r="H1503" t="n">
-        <v>1.71176411358154e-06</v>
+        <v>3.062654592461759e-05</v>
       </c>
     </row>
     <row r="1504">
@@ -45550,19 +45550,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1504" t="n">
-        <v>50</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="E1504" t="n">
-        <v>117088.1706234356</v>
+        <v>117137.4208055336</v>
       </c>
       <c r="F1504" t="n">
-        <v>13.35498634047413</v>
+        <v>17.7509557418591</v>
       </c>
       <c r="G1504" t="n">
-        <v>0.0002344389842039683</v>
+        <v>6.157304128570837e-05</v>
       </c>
       <c r="H1504" t="n">
-        <v>1.468542303643153e-06</v>
+        <v>2.754984756452787e-05</v>
       </c>
     </row>
     <row r="1505">
@@ -45580,19 +45580,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1505" t="n">
-        <v>60</v>
+        <v>0.8</v>
       </c>
       <c r="E1505" t="n">
-        <v>117078.1813387553</v>
+        <v>117137.3208948454</v>
       </c>
       <c r="F1505" t="n">
-        <v>13.14444588639772</v>
+        <v>17.62622431300164</v>
       </c>
       <c r="G1505" t="n">
-        <v>0.0002482159447331342</v>
+        <v>6.420278793556157e-05</v>
       </c>
       <c r="H1505" t="n">
-        <v>1.295701795348664e-06</v>
+        <v>2.513567400472642e-05</v>
       </c>
     </row>
     <row r="1506">
@@ -45610,19 +45610,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1506" t="n">
-        <v>70</v>
+        <v>0.9</v>
       </c>
       <c r="E1506" t="n">
-        <v>117068.1921838879</v>
+        <v>117137.2209844086</v>
       </c>
       <c r="F1506" t="n">
-        <v>12.9646363640688</v>
+        <v>17.51562394788555</v>
       </c>
       <c r="G1506" t="n">
-        <v>0.0002604939529757503</v>
+        <v>6.661546094706312e-05</v>
       </c>
       <c r="H1506" t="n">
-        <v>1.165537473236514e-06</v>
+        <v>2.318244098296143e-05</v>
       </c>
     </row>
     <row r="1507">
@@ -45640,19 +45640,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1507" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="E1507" t="n">
-        <v>117058.2031457086</v>
+        <v>117137.1210742038</v>
       </c>
       <c r="F1507" t="n">
-        <v>12.8075005880208</v>
+        <v>17.416221004623</v>
       </c>
       <c r="G1507" t="n">
-        <v>0.0002716194891818687</v>
+        <v>6.885039631565398e-05</v>
       </c>
       <c r="H1507" t="n">
-        <v>1.063402252914338e-06</v>
+        <v>2.156418651007428e-05</v>
       </c>
     </row>
     <row r="1508">
@@ -45670,19 +45670,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1508" t="n">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="E1508" t="n">
-        <v>117048.2142139423</v>
+        <v>117136.1219822542</v>
       </c>
       <c r="F1508" t="n">
-        <v>12.66782204715036</v>
+        <v>16.75097638765828</v>
       </c>
       <c r="G1508" t="n">
-        <v>0.0002818266629202533</v>
+        <v>8.554410736292593e-05</v>
       </c>
       <c r="H1508" t="n">
-        <v>9.807678109088845e-07</v>
+        <v>1.339635778968305e-05</v>
       </c>
     </row>
     <row r="1509">
@@ -45700,19 +45700,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1509" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="E1509" t="n">
-        <v>117038.2253802887</v>
+        <v>117135.1229040433</v>
       </c>
       <c r="F1509" t="n">
-        <v>12.54199566744745</v>
+        <v>16.35226966376262</v>
       </c>
       <c r="G1509" t="n">
-        <v>0.0002912818909982058</v>
+        <v>9.712756501805446e-05</v>
       </c>
       <c r="H1509" t="n">
-        <v>9.12305137024217e-07</v>
+        <v>1.014023176529141e-05</v>
       </c>
     </row>
     <row r="1510">
@@ -45730,19 +45730,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1510" t="n">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="E1510" t="n">
-        <v>116938.341316266</v>
+        <v>117134.1238360771</v>
       </c>
       <c r="F1510" t="n">
-        <v>11.6924584275224</v>
+        <v>16.06484506683022</v>
       </c>
       <c r="G1510" t="n">
-        <v>0.0003619071303843939</v>
+        <v>0.0001062854347412961</v>
       </c>
       <c r="H1510" t="n">
-        <v>5.667529365521207e-07</v>
+        <v>8.322243083241815e-06</v>
       </c>
     </row>
     <row r="1511">
@@ -45760,19 +45760,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1511" t="n">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="E1511" t="n">
-        <v>116838.4630645932</v>
+        <v>117133.1247764774</v>
       </c>
       <c r="F1511" t="n">
-        <v>11.17668493068748</v>
+        <v>15.83922321431638</v>
       </c>
       <c r="G1511" t="n">
-        <v>0.0004109126790905283</v>
+        <v>0.0001139793853167942</v>
       </c>
       <c r="H1511" t="n">
-        <v>4.289976589550289e-07</v>
+        <v>7.13974894786813e-06</v>
       </c>
     </row>
     <row r="1512">
@@ -45790,19 +45790,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1512" t="n">
-        <v>400</v>
+        <v>6</v>
       </c>
       <c r="E1512" t="n">
-        <v>116738.5891470965</v>
+        <v>117132.1257240396</v>
       </c>
       <c r="F1512" t="n">
-        <v>10.80155063914401</v>
+        <v>15.65308157058873</v>
       </c>
       <c r="G1512" t="n">
-        <v>0.0004496564155575114</v>
+        <v>0.000120677458582979</v>
       </c>
       <c r="H1512" t="n">
-        <v>3.520849308578717e-07</v>
+        <v>6.299434144417687e-06</v>
       </c>
     </row>
     <row r="1513">
@@ -45820,19 +45820,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1513" t="n">
-        <v>500</v>
+        <v>7</v>
       </c>
       <c r="E1513" t="n">
-        <v>116638.7187692038</v>
+        <v>117131.1266779129</v>
       </c>
       <c r="F1513" t="n">
-        <v>10.50499512098097</v>
+        <v>15.49440666552212</v>
       </c>
       <c r="G1513" t="n">
-        <v>0.0004822068232937752</v>
+        <v>0.0001266467722496442</v>
       </c>
       <c r="H1513" t="n">
-        <v>3.020577492761126e-07</v>
+        <v>5.666602131649174e-06</v>
       </c>
     </row>
     <row r="1514">
@@ -45850,19 +45850,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1514" t="n">
-        <v>600</v>
+        <v>8</v>
       </c>
       <c r="E1514" t="n">
-        <v>116538.8514211923</v>
+        <v>117130.1276374594</v>
       </c>
       <c r="F1514" t="n">
-        <v>10.25889682223964</v>
+        <v>15.35597802137149</v>
       </c>
       <c r="G1514" t="n">
-        <v>0.0005105440232435622</v>
+        <v>0.0001320557778482604</v>
       </c>
       <c r="H1514" t="n">
-        <v>2.66506975703124e-07</v>
+        <v>5.170041814641974e-06</v>
       </c>
     </row>
     <row r="1515">
@@ -45880,19 +45880,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1515" t="n">
-        <v>700</v>
+        <v>9</v>
       </c>
       <c r="E1515" t="n">
-        <v>116438.9867432452</v>
+        <v>117129.1286021795</v>
       </c>
       <c r="F1515" t="n">
-        <v>10.04805199289291</v>
+        <v>15.23310594300632</v>
       </c>
       <c r="G1515" t="n">
-        <v>0.000535798096797709</v>
+        <v>0.0001370182946091699</v>
       </c>
       <c r="H1515" t="n">
-        <v>2.397340716637173e-07</v>
+        <v>4.768290248546486e-06</v>
       </c>
     </row>
     <row r="1516">
@@ -45910,19 +45910,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1516" t="n">
-        <v>800</v>
+        <v>10</v>
       </c>
       <c r="E1516" t="n">
-        <v>116339.1244653998</v>
+        <v>117128.1295716696</v>
       </c>
       <c r="F1516" t="n">
-        <v>9.863282402698665</v>
+        <v>15.12257788596493</v>
       </c>
       <c r="G1516" t="n">
-        <v>0.0005586817033344311</v>
+        <v>0.000141615230942154</v>
       </c>
       <c r="H1516" t="n">
-        <v>2.187263453654679e-07</v>
+        <v>4.435438887966904e-06</v>
       </c>
     </row>
     <row r="1517">
@@ -45940,19 +45940,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1517" t="n">
-        <v>900</v>
+        <v>20</v>
       </c>
       <c r="E1517" t="n">
-        <v>116239.2643763156</v>
+        <v>117118.1394742914</v>
       </c>
       <c r="F1517" t="n">
-        <v>9.698624646175254</v>
+        <v>14.38026319109499</v>
       </c>
       <c r="G1517" t="n">
-        <v>0.0005796763721174682</v>
+        <v>0.0001759517616195162</v>
       </c>
       <c r="H1517" t="n">
-        <v>2.017296449619907e-07</v>
+        <v>2.755435558383784e-06</v>
       </c>
     </row>
     <row r="1518">
@@ -45970,19 +45970,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1518" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="E1518" t="n">
-        <v>116139.4063052652</v>
+        <v>117108.1496594976</v>
       </c>
       <c r="F1518" t="n">
-        <v>9.549957034853636</v>
+        <v>13.93307906797548</v>
       </c>
       <c r="G1518" t="n">
-        <v>0.0005991243982658017</v>
+        <v>0.0001997772458392302</v>
       </c>
       <c r="H1518" t="n">
-        <v>1.876478707211498e-07</v>
+        <v>2.085697890052976e-06</v>
       </c>
     </row>
     <row r="1519">
@@ -46000,19 +46000,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1519" t="n">
-        <v>2000</v>
+        <v>40</v>
       </c>
       <c r="E1519" t="n">
-        <v>115140.9134741471</v>
+        <v>117098.1600554225</v>
       </c>
       <c r="F1519" t="n">
-        <v>8.537080202699885</v>
+        <v>13.60960373094266</v>
       </c>
       <c r="G1519" t="n">
-        <v>0.0007443902227378387</v>
+        <v>0.000218613649189027</v>
       </c>
       <c r="H1519" t="n">
-        <v>1.165728191730454e-07</v>
+        <v>1.71176411358154e-06</v>
       </c>
     </row>
     <row r="1520">
@@ -46030,19 +46030,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1520" t="n">
-        <v>3000</v>
+        <v>50</v>
       </c>
       <c r="E1520" t="n">
-        <v>114142.540194593</v>
+        <v>117088.1706234356</v>
       </c>
       <c r="F1520" t="n">
-        <v>7.913542366374402</v>
+        <v>13.35498634047413</v>
       </c>
       <c r="G1520" t="n">
-        <v>0.0008451874943417539</v>
+        <v>0.0002344389842039683</v>
       </c>
       <c r="H1520" t="n">
-        <v>8.823856622121855e-08</v>
+        <v>1.468542303643153e-06</v>
       </c>
     </row>
     <row r="1521">
@@ -46060,19 +46060,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1521" t="n">
-        <v>4000</v>
+        <v>60</v>
       </c>
       <c r="E1521" t="n">
-        <v>113144.2560627253</v>
+        <v>117078.1813387553</v>
       </c>
       <c r="F1521" t="n">
-        <v>7.455411287482415</v>
+        <v>13.14444588639772</v>
       </c>
       <c r="G1521" t="n">
-        <v>0.0009248777137295884</v>
+        <v>0.0002482159447331342</v>
       </c>
       <c r="H1521" t="n">
-        <v>7.241873898023359e-08</v>
+        <v>1.295701795348664e-06</v>
       </c>
     </row>
     <row r="1522">
@@ -46090,19 +46090,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1522" t="n">
-        <v>5000</v>
+        <v>70</v>
       </c>
       <c r="E1522" t="n">
-        <v>112146.044735354</v>
+        <v>117068.1921838879</v>
       </c>
       <c r="F1522" t="n">
-        <v>7.090225649421357</v>
+        <v>12.9646363640688</v>
       </c>
       <c r="G1522" t="n">
-        <v>0.0009918291585360754</v>
+        <v>0.0002604939529757503</v>
       </c>
       <c r="H1522" t="n">
-        <v>6.212887682663676e-08</v>
+        <v>1.165537473236514e-06</v>
       </c>
     </row>
     <row r="1523">
@@ -46120,19 +46120,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1523" t="n">
-        <v>6000</v>
+        <v>80</v>
       </c>
       <c r="E1523" t="n">
-        <v>111147.8957282231</v>
+        <v>117058.2031457086</v>
       </c>
       <c r="F1523" t="n">
-        <v>6.784992935323293</v>
+        <v>12.8075005880208</v>
       </c>
       <c r="G1523" t="n">
-        <v>0.00105011464896005</v>
+        <v>0.0002716194891818687</v>
       </c>
       <c r="H1523" t="n">
-        <v>5.481660082080292e-08</v>
+        <v>1.063402252914338e-06</v>
       </c>
     </row>
     <row r="1524">
@@ -46150,19 +46150,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1524" t="n">
-        <v>7000</v>
+        <v>90</v>
       </c>
       <c r="E1524" t="n">
-        <v>110149.8016404247</v>
+        <v>117048.2142139423</v>
       </c>
       <c r="F1524" t="n">
-        <v>6.521805100379792</v>
+        <v>12.66782204715036</v>
       </c>
       <c r="G1524" t="n">
-        <v>0.001102058597724041</v>
+        <v>0.0002818266629202533</v>
       </c>
       <c r="H1524" t="n">
-        <v>4.930980464907106e-08</v>
+        <v>9.807678109088845e-07</v>
       </c>
     </row>
     <row r="1525">
@@ -46180,19 +46180,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1525" t="n">
-        <v>8000</v>
+        <v>100</v>
       </c>
       <c r="E1525" t="n">
-        <v>109151.7569192216</v>
+        <v>117038.2253802887</v>
       </c>
       <c r="F1525" t="n">
-        <v>6.289821861431777</v>
+        <v>12.54199566744745</v>
       </c>
       <c r="G1525" t="n">
-        <v>0.001149126841305821</v>
+        <v>0.0002912818909982058</v>
       </c>
       <c r="H1525" t="n">
-        <v>4.498882151680733e-08</v>
+        <v>9.12305137024217e-07</v>
       </c>
     </row>
     <row r="1526">
@@ -46210,19 +46210,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1526" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="E1526" t="n">
-        <v>108153.7572176469</v>
+        <v>116938.341316266</v>
       </c>
       <c r="F1526" t="n">
-        <v>6.081964157486405</v>
+        <v>11.6924584275224</v>
       </c>
       <c r="G1526" t="n">
-        <v>0.001192309815222673</v>
+        <v>0.0003619071303843939</v>
       </c>
       <c r="H1526" t="n">
-        <v>4.14928479542764e-08</v>
+        <v>5.667529365521207e-07</v>
       </c>
     </row>
     <row r="1527">
@@ -46240,19 +46240,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1527" t="n">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="E1527" t="n">
-        <v>107155.7990240854</v>
+        <v>116838.4630645932</v>
       </c>
       <c r="F1527" t="n">
-        <v>5.893341461621655</v>
+        <v>11.17668493068748</v>
       </c>
       <c r="G1527" t="n">
-        <v>0.001232311570648143</v>
+        <v>0.0004109126790905283</v>
       </c>
       <c r="H1527" t="n">
-        <v>3.859643222117117e-08</v>
+        <v>4.289976589550289e-07</v>
       </c>
     </row>
     <row r="1528">
@@ -46270,19 +46270,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1528" t="n">
-        <v>20000</v>
+        <v>400</v>
       </c>
       <c r="E1528" t="n">
-        <v>97178.02463936181</v>
+        <v>116738.5891470965</v>
       </c>
       <c r="F1528" t="n">
-        <v>4.58040718778369</v>
+        <v>10.80155063914401</v>
       </c>
       <c r="G1528" t="n">
-        <v>0.001531102200498628</v>
+        <v>0.0004496564155575114</v>
       </c>
       <c r="H1528" t="n">
-        <v>2.397732996783835e-08</v>
+        <v>3.520849308578717e-07</v>
       </c>
     </row>
     <row r="1529">
@@ -46300,19 +46300,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1529" t="n">
-        <v>30000</v>
+        <v>500</v>
       </c>
       <c r="E1529" t="n">
-        <v>87202.70925607473</v>
+        <v>116638.7187692038</v>
       </c>
       <c r="F1529" t="n">
-        <v>3.742014269962352</v>
+        <v>10.50499512098097</v>
       </c>
       <c r="G1529" t="n">
-        <v>0.001738427497960743</v>
+        <v>0.0004822068232937752</v>
       </c>
       <c r="H1529" t="n">
-        <v>1.81493870799714e-08</v>
+        <v>3.020577492761126e-07</v>
       </c>
     </row>
     <row r="1530">
@@ -46330,19 +46330,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1530" t="n">
-        <v>40000</v>
+        <v>600</v>
       </c>
       <c r="E1530" t="n">
-        <v>77229.22751077353</v>
+        <v>116538.8514211923</v>
       </c>
       <c r="F1530" t="n">
-        <v>3.106153574759611</v>
+        <v>10.25889682223964</v>
       </c>
       <c r="G1530" t="n">
-        <v>0.00190233866516303</v>
+        <v>0.0005105440232435622</v>
       </c>
       <c r="H1530" t="n">
-        <v>1.489547917517737e-08</v>
+        <v>2.66506975703124e-07</v>
       </c>
     </row>
     <row r="1531">
@@ -46360,19 +46360,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1531" t="n">
-        <v>50000</v>
+        <v>700</v>
       </c>
       <c r="E1531" t="n">
-        <v>67257.24324785835</v>
+        <v>116438.9867432452</v>
       </c>
       <c r="F1531" t="n">
-        <v>2.583503066932728</v>
+        <v>10.04805199289291</v>
       </c>
       <c r="G1531" t="n">
-        <v>0.002040048029604637</v>
+        <v>0.000535798096797709</v>
       </c>
       <c r="H1531" t="n">
-        <v>1.277900449496812e-08</v>
+        <v>2.397340716637173e-07</v>
       </c>
     </row>
     <row r="1532">
@@ -46390,19 +46390,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1532" t="n">
-        <v>60000</v>
+        <v>800</v>
       </c>
       <c r="E1532" t="n">
-        <v>57286.54082146064</v>
+        <v>116339.1244653998</v>
       </c>
       <c r="F1532" t="n">
-        <v>2.132667037890202</v>
+        <v>9.863282402698665</v>
       </c>
       <c r="G1532" t="n">
-        <v>0.002159932788860436</v>
+        <v>0.0005586817033344311</v>
       </c>
       <c r="H1532" t="n">
-        <v>1.127497588991641e-08</v>
+        <v>2.187263453654679e-07</v>
       </c>
     </row>
     <row r="1533">
@@ -46420,19 +46420,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1533" t="n">
-        <v>70000</v>
+        <v>900</v>
       </c>
       <c r="E1533" t="n">
-        <v>47316.96800569328</v>
+        <v>116239.2643763156</v>
       </c>
       <c r="F1533" t="n">
-        <v>1.730455605288478</v>
+        <v>9.698624646175254</v>
       </c>
       <c r="G1533" t="n">
-        <v>0.002266773921139973</v>
+        <v>0.0005796763721174682</v>
       </c>
       <c r="H1533" t="n">
-        <v>1.01423081736176e-08</v>
+        <v>2.017296449619907e-07</v>
       </c>
     </row>
     <row r="1534">
@@ -46450,19 +46450,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1534" t="n">
-        <v>80000</v>
+        <v>1000</v>
       </c>
       <c r="E1534" t="n">
-        <v>37348.41058884584</v>
+        <v>116139.4063052652</v>
       </c>
       <c r="F1534" t="n">
-        <v>1.361885204788855</v>
+        <v>9.549957034853636</v>
       </c>
       <c r="G1534" t="n">
-        <v>0.00236358643844657</v>
+        <v>0.0005991243982658017</v>
       </c>
       <c r="H1534" t="n">
-        <v>9.253544917459619e-09</v>
+        <v>1.876478707211498e-07</v>
       </c>
     </row>
     <row r="1535">
@@ -46480,19 +46480,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1535" t="n">
-        <v>90000</v>
+        <v>2000</v>
       </c>
       <c r="E1535" t="n">
-        <v>27248.92229459132</v>
+        <v>115140.9134741471</v>
       </c>
       <c r="F1535" t="n">
-        <v>0.8113706502144151</v>
+        <v>8.537080202699885</v>
       </c>
       <c r="G1535" t="n">
-        <v>0.000569387475681471</v>
+        <v>0.0007443902227378387</v>
       </c>
       <c r="H1535" t="n">
-        <v>6.782980093380661e-08</v>
+        <v>1.165728191730454e-07</v>
       </c>
     </row>
     <row r="1536">
@@ -46510,19 +46510,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1536" t="n">
-        <v>95000</v>
+        <v>3000</v>
       </c>
       <c r="E1536" t="n">
-        <v>22270.99777513687</v>
+        <v>114142.540194593</v>
       </c>
       <c r="F1536" t="n">
-        <v>0.6992535907261219</v>
+        <v>7.913542366374402</v>
       </c>
       <c r="G1536" t="n">
-        <v>0.005339770001731803</v>
+        <v>0.0008451874943417539</v>
       </c>
       <c r="H1536" t="n">
-        <v>7.007825537983514e-07</v>
+        <v>8.823856622121855e-08</v>
       </c>
     </row>
     <row r="1537">
@@ -46540,19 +46540,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1537" t="n">
-        <v>100000</v>
+        <v>4000</v>
       </c>
       <c r="E1537" t="n">
-        <v>17310.57827371127</v>
+        <v>113144.2560627253</v>
       </c>
       <c r="F1537" t="n">
-        <v>0.5931906679566097</v>
+        <v>7.455411287482415</v>
       </c>
       <c r="G1537" t="n">
-        <v>0.01159646759016408</v>
+        <v>0.0009248777137295884</v>
       </c>
       <c r="H1537" t="n">
-        <v>1.801896481574583e-06</v>
+        <v>7.241873898023359e-08</v>
       </c>
     </row>
     <row r="1538">
@@ -46570,19 +46570,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1538" t="n">
-        <v>105000</v>
+        <v>5000</v>
       </c>
       <c r="E1538" t="n">
-        <v>12395.16878320149</v>
+        <v>112146.044735354</v>
       </c>
       <c r="F1538" t="n">
-        <v>0.4929681346509932</v>
+        <v>7.090225649421357</v>
       </c>
       <c r="G1538" t="n">
-        <v>0.02193595408394466</v>
+        <v>0.0009918291585360754</v>
       </c>
       <c r="H1538" t="n">
-        <v>4.667796231875254e-06</v>
+        <v>6.212887682663676e-08</v>
       </c>
     </row>
     <row r="1539">
@@ -46600,19 +46600,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1539" t="n">
-        <v>107500</v>
+        <v>6000</v>
       </c>
       <c r="E1539" t="n">
-        <v>9981.188294895714</v>
+        <v>111147.8957282231</v>
       </c>
       <c r="F1539" t="n">
-        <v>0.446811459410829</v>
+        <v>6.784992935323293</v>
       </c>
       <c r="G1539" t="n">
-        <v>0.04711229153182683</v>
+        <v>0.00105011464896005</v>
       </c>
       <c r="H1539" t="n">
-        <v>1.080547749455523e-05</v>
+        <v>5.481660082080292e-08</v>
       </c>
     </row>
     <row r="1540">
@@ -46630,19 +46630,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1540" t="n">
-        <v>110000</v>
+        <v>7000</v>
       </c>
       <c r="E1540" t="n">
-        <v>7634.685969868715</v>
+        <v>110149.8016404247</v>
       </c>
       <c r="F1540" t="n">
-        <v>0.4046078281963624</v>
+        <v>6.521805100379792</v>
       </c>
       <c r="G1540" t="n">
-        <v>0.086140842823765</v>
+        <v>0.001102058597724041</v>
       </c>
       <c r="H1540" t="n">
-        <v>2.041736353899526e-05</v>
+        <v>4.930980464907106e-08</v>
       </c>
     </row>
     <row r="1541">
@@ -46660,19 +46660,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1541" t="n">
-        <v>112500</v>
+        <v>8000</v>
       </c>
       <c r="E1541" t="n">
-        <v>5415.686218541093</v>
+        <v>109151.7569192216</v>
       </c>
       <c r="F1541" t="n">
-        <v>0.3663572635230751</v>
+        <v>6.289821861431777</v>
       </c>
       <c r="G1541" t="n">
-        <v>0.161210611826602</v>
+        <v>0.001149126841305821</v>
       </c>
       <c r="H1541" t="n">
-        <v>3.963845166327436e-05</v>
+        <v>4.498882151680733e-08</v>
       </c>
     </row>
     <row r="1542">
@@ -46690,19 +46690,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1542" t="n">
-        <v>115000</v>
+        <v>9000</v>
       </c>
       <c r="E1542" t="n">
-        <v>3444.221100902737</v>
+        <v>108153.7572176469</v>
       </c>
       <c r="F1542" t="n">
-        <v>0.3346712101183243</v>
+        <v>6.081964157486405</v>
       </c>
       <c r="G1542" t="n">
-        <v>0.2943664338107294</v>
+        <v>0.001192309815222673</v>
       </c>
       <c r="H1542" t="n">
-        <v>6.688620592402757e-05</v>
+        <v>4.14928479542764e-08</v>
       </c>
     </row>
     <row r="1543">
@@ -46720,19 +46720,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1543" t="n">
-        <v>117500</v>
+        <v>10000</v>
       </c>
       <c r="E1543" t="n">
-        <v>1890.447688856632</v>
+        <v>107155.7990240854</v>
       </c>
       <c r="F1543" t="n">
-        <v>0.3117841855734699</v>
+        <v>5.893341461621655</v>
       </c>
       <c r="G1543" t="n">
-        <v>0.4900923155745274</v>
+        <v>0.001232311570648143</v>
       </c>
       <c r="H1543" t="n">
-        <v>8.969449948701085e-05</v>
+        <v>3.859643222117117e-08</v>
       </c>
     </row>
     <row r="1544">
@@ -46750,19 +46750,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1544" t="n">
-        <v>120000</v>
+        <v>20000</v>
       </c>
       <c r="E1544" t="n">
-        <v>896.7994618976719</v>
+        <v>97178.02463936181</v>
       </c>
       <c r="F1544" t="n">
-        <v>0.3022350749480206</v>
+        <v>4.58040718778369</v>
       </c>
       <c r="G1544" t="n">
-        <v>0.7075762982835907</v>
+        <v>0.001531102200498628</v>
       </c>
       <c r="H1544" t="n">
-        <v>8.429268668023986e-05</v>
+        <v>2.397732996783835e-08</v>
       </c>
     </row>
     <row r="1545">
@@ -46780,19 +46780,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1545" t="n">
-        <v>122500</v>
+        <v>30000</v>
       </c>
       <c r="E1545" t="n">
-        <v>429.5431207098054</v>
+        <v>87202.70925607473</v>
       </c>
       <c r="F1545" t="n">
-        <v>0.315041240592603</v>
+        <v>3.742014269962352</v>
       </c>
       <c r="G1545" t="n">
-        <v>0.866204656817237</v>
+        <v>0.001738427497960743</v>
       </c>
       <c r="H1545" t="n">
-        <v>4.261000014667717e-05</v>
+        <v>1.81493870799714e-08</v>
       </c>
     </row>
     <row r="1546">
@@ -46810,19 +46810,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1546" t="n">
-        <v>125000</v>
+        <v>40000</v>
       </c>
       <c r="E1546" t="n">
-        <v>228.3781714715323</v>
+        <v>77229.22751077353</v>
       </c>
       <c r="F1546" t="n">
-        <v>0.340561336700914</v>
+        <v>3.106153574759611</v>
       </c>
       <c r="G1546" t="n">
-        <v>0.9409536375377845</v>
+        <v>0.00190233866516303</v>
       </c>
       <c r="H1546" t="n">
-        <v>1.718918442976082e-05</v>
+        <v>1.489547917517737e-08</v>
       </c>
     </row>
     <row r="1547">
@@ -46840,19 +46840,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1547" t="n">
-        <v>127500</v>
+        <v>50000</v>
       </c>
       <c r="E1547" t="n">
-        <v>134.5564279513662</v>
+        <v>67257.24324785835</v>
       </c>
       <c r="F1547" t="n">
-        <v>0.3709401317081121</v>
+        <v>2.583503066932728</v>
       </c>
       <c r="G1547" t="n">
-        <v>0.9719045121182168</v>
+        <v>0.002040048029604637</v>
       </c>
       <c r="H1547" t="n">
-        <v>7.571515234584977e-06</v>
+        <v>1.277900449496812e-08</v>
       </c>
     </row>
     <row r="1548">
@@ -46870,19 +46870,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1548" t="n">
-        <v>130000</v>
+        <v>60000</v>
       </c>
       <c r="E1548" t="n">
-        <v>88.01736504614914</v>
+        <v>57286.54082146064</v>
       </c>
       <c r="F1548" t="n">
-        <v>0.4045253719868928</v>
+        <v>2.132667037890202</v>
       </c>
       <c r="G1548" t="n">
-        <v>0.9848912778632491</v>
+        <v>0.002159932788860436</v>
       </c>
       <c r="H1548" t="n">
-        <v>2.817897361440937e-06</v>
+        <v>1.127497588991641e-08</v>
       </c>
     </row>
     <row r="1549">
@@ -46900,19 +46900,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1549" t="n">
-        <v>132500</v>
+        <v>70000</v>
       </c>
       <c r="E1549" t="n">
-        <v>59.0755382051375</v>
+        <v>47316.96800569328</v>
       </c>
       <c r="F1549" t="n">
-        <v>0.4357182687039396</v>
+        <v>1.730455605288478</v>
       </c>
       <c r="G1549" t="n">
-        <v>0.990412392940957</v>
+        <v>0.002266773921139973</v>
       </c>
       <c r="H1549" t="n">
-        <v>1.59899470072527e-06</v>
+        <v>1.01423081736176e-08</v>
       </c>
     </row>
     <row r="1550">
@@ -46930,19 +46930,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1550" t="n">
-        <v>135000</v>
+        <v>80000</v>
       </c>
       <c r="E1550" t="n">
-        <v>40.1191308471434</v>
+        <v>37348.41058884584</v>
       </c>
       <c r="F1550" t="n">
-        <v>0.4642877481204939</v>
+        <v>1.361885204788855</v>
       </c>
       <c r="G1550" t="n">
-        <v>0.9939052495851852</v>
+        <v>0.00236358643844657</v>
       </c>
       <c r="H1550" t="n">
-        <v>1.195290614657312e-06</v>
+        <v>9.253544917459619e-09</v>
       </c>
     </row>
     <row r="1551">
@@ -46960,19 +46960,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1551" t="n">
-        <v>137500</v>
+        <v>90000</v>
       </c>
       <c r="E1551" t="n">
-        <v>28.62708730852498</v>
+        <v>27248.92229459132</v>
       </c>
       <c r="F1551" t="n">
-        <v>0.4931293638288702</v>
+        <v>0.8113706502144151</v>
       </c>
       <c r="G1551" t="n">
-        <v>0.9959095705373376</v>
+        <v>0.000569387475681471</v>
       </c>
       <c r="H1551" t="n">
-        <v>4.081661470646348e-07</v>
+        <v>6.782980093380661e-08</v>
       </c>
     </row>
     <row r="1552">
@@ -46990,19 +46990,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1552" t="n">
-        <v>140000</v>
+        <v>95000</v>
       </c>
       <c r="E1552" t="n">
-        <v>19.68396416054873</v>
+        <v>22270.99777513687</v>
       </c>
       <c r="F1552" t="n">
-        <v>0.5172137560915416</v>
+        <v>0.6992535907261219</v>
       </c>
       <c r="G1552" t="n">
-        <v>0.9973480301669176</v>
+        <v>0.005339770001731803</v>
       </c>
       <c r="H1552" t="n">
-        <v>3.713007782997199e-07</v>
+        <v>7.007825537983514e-07</v>
       </c>
     </row>
     <row r="1553">
@@ -47020,19 +47020,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1553" t="n">
-        <v>145000</v>
+        <v>100000</v>
       </c>
       <c r="E1553" t="n">
-        <v>8.753827270109419</v>
+        <v>17310.57827371127</v>
       </c>
       <c r="F1553" t="n">
-        <v>0.5562975110273833</v>
+        <v>0.5931906679566097</v>
       </c>
       <c r="G1553" t="n">
-        <v>0.9983632331579858</v>
+        <v>0.01159646759016408</v>
       </c>
       <c r="H1553" t="n">
-        <v>2.204308072773773e-07</v>
+        <v>1.801896481574583e-06</v>
       </c>
     </row>
     <row r="1554">
@@ -47050,19 +47050,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1554" t="n">
-        <v>150000</v>
+        <v>105000</v>
       </c>
       <c r="E1554" t="n">
-        <v>3.329885182308138</v>
+        <v>12395.16878320149</v>
       </c>
       <c r="F1554" t="n">
-        <v>0.582136794730312</v>
+        <v>0.4929681346509932</v>
       </c>
       <c r="G1554" t="n">
-        <v>0.999481388098113</v>
+        <v>0.02193595408394466</v>
       </c>
       <c r="H1554" t="n">
-        <v>1.134155843867566e-07</v>
+        <v>4.667796231875254e-06</v>
       </c>
     </row>
     <row r="1555">
@@ -47080,19 +47080,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1555" t="n">
-        <v>160000</v>
+        <v>107500</v>
       </c>
       <c r="E1555" t="n">
-        <v>0.9811074927970781</v>
+        <v>9981.188294895714</v>
       </c>
       <c r="F1555" t="n">
-        <v>0.6559090172354611</v>
+        <v>0.446811459410829</v>
       </c>
       <c r="G1555" t="n">
-        <v>0.9998149605310274</v>
+        <v>0.04711229153182683</v>
       </c>
       <c r="H1555" t="n">
-        <v>2.001338877900376e-08</v>
+        <v>1.080547749455523e-05</v>
       </c>
     </row>
     <row r="1556">
@@ -47110,499 +47110,499 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D1556" t="n">
-        <v>260000</v>
+        <v>110000</v>
       </c>
       <c r="E1556" t="n">
-        <v>1.082883260110637e-05</v>
+        <v>7634.685969868715</v>
       </c>
       <c r="F1556" t="n">
-        <v>0.9868072232141848</v>
+        <v>0.4046078281963624</v>
       </c>
       <c r="G1556" t="n">
-        <v>0.9999999990301526</v>
+        <v>0.086140842823765</v>
       </c>
       <c r="H1556" t="n">
-        <v>9.051914732816795e-14</v>
+        <v>2.041736353899526e-05</v>
       </c>
     </row>
     <row r="1557">
       <c r="A1557" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B1557" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C1557" t="n">
-        <v>0.05753424657534247</v>
+        <v>0.01917808219178082</v>
       </c>
       <c r="D1557" t="n">
-        <v>1000</v>
+        <v>112500</v>
       </c>
       <c r="E1557" t="n">
-        <v>116697.2690653237</v>
+        <v>5415.686218541093</v>
       </c>
       <c r="F1557" t="n">
-        <v>0</v>
+        <v>0.3663572635230751</v>
       </c>
       <c r="G1557" t="n">
-        <v>2.94503843534244e-09</v>
+        <v>0.161210611826602</v>
       </c>
       <c r="H1557" t="n">
-        <v>4.991891138001934e-10</v>
+        <v>3.963845166327436e-05</v>
       </c>
     </row>
     <row r="1558">
       <c r="A1558" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B1558" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C1558" t="n">
-        <v>0.05753424657534247</v>
+        <v>0.01917808219178082</v>
       </c>
       <c r="D1558" t="n">
-        <v>5000</v>
+        <v>115000</v>
       </c>
       <c r="E1558" t="n">
-        <v>112707.2799147402</v>
+        <v>3444.221100902737</v>
       </c>
       <c r="F1558" t="n">
-        <v>2.30610295926188</v>
+        <v>0.3346712101183243</v>
       </c>
       <c r="G1558" t="n">
-        <v>1.123470009889438e-05</v>
+        <v>0.2943664338107294</v>
       </c>
       <c r="H1558" t="n">
-        <v>4.991891138001934e-10</v>
+        <v>6.688620592402757e-05</v>
       </c>
     </row>
     <row r="1559">
       <c r="A1559" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B1559" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C1559" t="n">
-        <v>0.05753424657534247</v>
+        <v>0.01917808219178082</v>
       </c>
       <c r="D1559" t="n">
-        <v>50000</v>
+        <v>117500</v>
       </c>
       <c r="E1559" t="n">
-        <v>67820.45094929283</v>
+        <v>1890.447688856632</v>
       </c>
       <c r="F1559" t="n">
-        <v>0.9782911626679104</v>
+        <v>0.3117841855734699</v>
       </c>
       <c r="G1559" t="n">
-        <v>0.001356403116930638</v>
+        <v>0.4900923155745274</v>
       </c>
       <c r="H1559" t="n">
-        <v>6.72085019302075e-08</v>
+        <v>8.969449948701085e-05</v>
       </c>
     </row>
     <row r="1560">
       <c r="A1560" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B1560" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C1560" t="n">
-        <v>0.05753424657534247</v>
+        <v>0.01917808219178082</v>
       </c>
       <c r="D1560" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="E1560" t="n">
-        <v>28035.01593203598</v>
+        <v>896.7994618976719</v>
       </c>
       <c r="F1560" t="n">
-        <v>0.5622333956142321</v>
+        <v>0.3022350749480206</v>
       </c>
       <c r="G1560" t="n">
-        <v>0.004471017817655909</v>
+        <v>0.7075762982835907</v>
       </c>
       <c r="H1560" t="n">
-        <v>6.409693629181609e-07</v>
+        <v>8.429268668023986e-05</v>
       </c>
     </row>
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C1561" t="n">
-        <v>0.05753424657534247</v>
+        <v>0.01917808219178082</v>
       </c>
       <c r="D1561" t="n">
-        <v>95000</v>
+        <v>122500</v>
       </c>
       <c r="E1561" t="n">
-        <v>23133.76514020039</v>
+        <v>429.5431207098054</v>
       </c>
       <c r="F1561" t="n">
-        <v>0.5116630654511987</v>
+        <v>0.315041240592603</v>
       </c>
       <c r="G1561" t="n">
-        <v>0.02405829282224481</v>
+        <v>0.866204656817237</v>
       </c>
       <c r="H1561" t="n">
-        <v>2.707155098490333e-06</v>
+        <v>4.261000014667717e-05</v>
       </c>
     </row>
     <row r="1562">
       <c r="A1562" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C1562" t="n">
-        <v>0.05753424657534247</v>
+        <v>0.01917808219178082</v>
       </c>
       <c r="D1562" t="n">
-        <v>100000</v>
+        <v>125000</v>
       </c>
       <c r="E1562" t="n">
-        <v>18300.02384526314</v>
+        <v>228.3781714715323</v>
       </c>
       <c r="F1562" t="n">
-        <v>0.4613208628481689</v>
+        <v>0.340561336700914</v>
       </c>
       <c r="G1562" t="n">
-        <v>0.04360051672849585</v>
+        <v>0.9409536375377845</v>
       </c>
       <c r="H1562" t="n">
-        <v>5.109734464010107e-06</v>
+        <v>1.718918442976082e-05</v>
       </c>
     </row>
     <row r="1563">
       <c r="A1563" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B1563" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C1563" t="n">
-        <v>0.05753424657534247</v>
+        <v>0.01917808219178082</v>
       </c>
       <c r="D1563" t="n">
-        <v>105000</v>
+        <v>127500</v>
       </c>
       <c r="E1563" t="n">
-        <v>13593.70620741217</v>
+        <v>134.5564279513662</v>
       </c>
       <c r="F1563" t="n">
-        <v>0.4112092098243573</v>
+        <v>0.3709401317081121</v>
       </c>
       <c r="G1563" t="n">
-        <v>0.08721497619974128</v>
+        <v>0.9719045121182168</v>
       </c>
       <c r="H1563" t="n">
-        <v>1.233604932448804e-05</v>
+        <v>7.571515234584977e-06</v>
       </c>
     </row>
     <row r="1564">
       <c r="A1564" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B1564" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C1564" t="n">
-        <v>0.05753424657534247</v>
+        <v>0.01917808219178082</v>
       </c>
       <c r="D1564" t="n">
-        <v>110000</v>
+        <v>130000</v>
       </c>
       <c r="E1564" t="n">
-        <v>9195.017964003246</v>
+        <v>88.01736504614914</v>
       </c>
       <c r="F1564" t="n">
-        <v>0.3689951938024534</v>
+        <v>0.4045253719868928</v>
       </c>
       <c r="G1564" t="n">
-        <v>0.1882329634457113</v>
+        <v>0.9848912778632491</v>
       </c>
       <c r="H1564" t="n">
-        <v>2.807114557389996e-05</v>
+        <v>2.817897361440937e-06</v>
       </c>
     </row>
     <row r="1565">
       <c r="A1565" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B1565" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C1565" t="n">
-        <v>0.05753424657534247</v>
+        <v>0.01917808219178082</v>
       </c>
       <c r="D1565" t="n">
-        <v>115000</v>
+        <v>132500</v>
       </c>
       <c r="E1565" t="n">
-        <v>5496.352011932854</v>
+        <v>59.0755382051375</v>
       </c>
       <c r="F1565" t="n">
-        <v>0.3437689224132798</v>
+        <v>0.4357182687039396</v>
       </c>
       <c r="G1565" t="n">
-        <v>0.365419919977449</v>
+        <v>0.990412392940957</v>
       </c>
       <c r="H1565" t="n">
-        <v>4.280363703879517e-05</v>
+        <v>1.59899470072527e-06</v>
       </c>
     </row>
     <row r="1566">
       <c r="A1566" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C1566" t="n">
-        <v>0.05753424657534247</v>
+        <v>0.01917808219178082</v>
       </c>
       <c r="D1566" t="n">
-        <v>120000</v>
+        <v>135000</v>
       </c>
       <c r="E1566" t="n">
-        <v>2865.098859195448</v>
+        <v>40.1191308471434</v>
       </c>
       <c r="F1566" t="n">
-        <v>0.3331845916590213</v>
+        <v>0.4642877481204939</v>
       </c>
       <c r="G1566" t="n">
-        <v>0.5832012932897954</v>
+        <v>0.9939052495851852</v>
       </c>
       <c r="H1566" t="n">
-        <v>4.430891228614337e-05</v>
+        <v>1.195290614657312e-06</v>
       </c>
     </row>
     <row r="1567">
       <c r="A1567" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C1567" t="n">
-        <v>0.05753424657534247</v>
+        <v>0.01917808219178082</v>
       </c>
       <c r="D1567" t="n">
-        <v>125000</v>
+        <v>137500</v>
       </c>
       <c r="E1567" t="n">
-        <v>1338.796205311333</v>
+        <v>28.62708730852498</v>
       </c>
       <c r="F1567" t="n">
-        <v>0.3340003670229947</v>
+        <v>0.4931293638288702</v>
       </c>
       <c r="G1567" t="n">
-        <v>0.774928500887758</v>
+        <v>0.9959095705373376</v>
       </c>
       <c r="H1567" t="n">
-        <v>3.238197075304169e-05</v>
+        <v>4.081661470646348e-07</v>
       </c>
     </row>
     <row r="1568">
       <c r="A1568" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C1568" t="n">
-        <v>0.05753424657534247</v>
+        <v>0.01917808219178082</v>
       </c>
       <c r="D1568" t="n">
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="E1568" t="n">
-        <v>620.0167536750806</v>
+        <v>19.68396416054873</v>
       </c>
       <c r="F1568" t="n">
-        <v>0.3470617600018621</v>
+        <v>0.5172137560915416</v>
       </c>
       <c r="G1568" t="n">
-        <v>0.8982456354178263</v>
+        <v>0.9973480301669176</v>
       </c>
       <c r="H1568" t="n">
-        <v>1.694488305898562e-05</v>
+        <v>3.713007782997199e-07</v>
       </c>
     </row>
     <row r="1569">
       <c r="A1569" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C1569" t="n">
-        <v>0.05753424657534247</v>
+        <v>0.01917808219178082</v>
       </c>
       <c r="D1569" t="n">
-        <v>135000</v>
+        <v>145000</v>
       </c>
       <c r="E1569" t="n">
-        <v>323.7991755536548</v>
+        <v>8.753827270109419</v>
       </c>
       <c r="F1569" t="n">
-        <v>0.3724521517681255</v>
+        <v>0.5562975110273833</v>
       </c>
       <c r="G1569" t="n">
-        <v>0.9573989950887437</v>
+        <v>0.9983632331579858</v>
       </c>
       <c r="H1569" t="n">
-        <v>6.716460809381347e-06</v>
+        <v>2.204308072773773e-07</v>
       </c>
     </row>
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B1570" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C1570" t="n">
-        <v>0.05753424657534247</v>
+        <v>0.01917808219178082</v>
       </c>
       <c r="D1570" t="n">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="E1570" t="n">
-        <v>195.0728839239393</v>
+        <v>3.329885182308138</v>
       </c>
       <c r="F1570" t="n">
-        <v>0.4046503703576552</v>
+        <v>0.582136794730312</v>
       </c>
       <c r="G1570" t="n">
-        <v>0.9799542360019396</v>
+        <v>0.999481388098113</v>
       </c>
       <c r="H1570" t="n">
-        <v>2.305635555897015e-06</v>
+        <v>1.134155843867566e-07</v>
       </c>
     </row>
     <row r="1571">
       <c r="A1571" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B1571" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C1571" t="n">
-        <v>0.05753424657534247</v>
+        <v>0.01917808219178082</v>
       </c>
       <c r="D1571" t="n">
-        <v>145000</v>
+        <v>160000</v>
       </c>
       <c r="E1571" t="n">
-        <v>123.8432227962324</v>
+        <v>0.9811074927970781</v>
       </c>
       <c r="F1571" t="n">
-        <v>0.4353394140815709</v>
+        <v>0.6559090172354611</v>
       </c>
       <c r="G1571" t="n">
-        <v>0.9884721368600717</v>
+        <v>0.9998149605310274</v>
       </c>
       <c r="H1571" t="n">
-        <v>1.101524787355821e-06</v>
+        <v>2.001338877900376e-08</v>
       </c>
     </row>
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B1572" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="C1572" t="n">
-        <v>0.05753424657534247</v>
+        <v>0.01917808219178082</v>
       </c>
       <c r="D1572" t="n">
-        <v>150000</v>
+        <v>260000</v>
       </c>
       <c r="E1572" t="n">
-        <v>80.0827614409765</v>
+        <v>1.082883260110637e-05</v>
       </c>
       <c r="F1572" t="n">
-        <v>0.4628729316597769</v>
+        <v>0.9868072232141848</v>
       </c>
       <c r="G1572" t="n">
-        <v>0.9924814689195403</v>
+        <v>0.9999999990301526</v>
       </c>
       <c r="H1572" t="n">
-        <v>5.022080364315629e-07</v>
+        <v>9.051914732816795e-14</v>
       </c>
     </row>
     <row r="1573">
@@ -47620,19 +47620,19 @@
         <v>0.05753424657534247</v>
       </c>
       <c r="D1573" t="n">
-        <v>155000</v>
+        <v>1000</v>
       </c>
       <c r="E1573" t="n">
-        <v>48.84607897696468</v>
+        <v>116697.2690653237</v>
       </c>
       <c r="F1573" t="n">
-        <v>0.4833110453321262</v>
+        <v>0</v>
       </c>
       <c r="G1573" t="n">
-        <v>0.9949895545493505</v>
+        <v>2.94503843534244e-09</v>
       </c>
       <c r="H1573" t="n">
-        <v>5.010262154925218e-07</v>
+        <v>4.991891138001934e-10</v>
       </c>
     </row>
     <row r="1574">
@@ -47650,19 +47650,19 @@
         <v>0.05753424657534247</v>
       </c>
       <c r="D1574" t="n">
-        <v>160000</v>
+        <v>5000</v>
       </c>
       <c r="E1574" t="n">
-        <v>30.10370382458073</v>
+        <v>112707.2799147402</v>
       </c>
       <c r="F1574" t="n">
-        <v>0.5019440696048463</v>
+        <v>2.30610295926188</v>
       </c>
       <c r="G1574" t="n">
-        <v>0.9972437144581868</v>
+        <v>1.123470009889438e-05</v>
       </c>
       <c r="H1574" t="n">
-        <v>4.006377480420433e-07</v>
+        <v>4.991891138001934e-10</v>
       </c>
     </row>
     <row r="1575">
@@ -47680,19 +47680,19 @@
         <v>0.05753424657534247</v>
       </c>
       <c r="D1575" t="n">
-        <v>165000</v>
+        <v>50000</v>
       </c>
       <c r="E1575" t="n">
-        <v>21.3522053766325</v>
+        <v>67820.45094929283</v>
       </c>
       <c r="F1575" t="n">
-        <v>0.5261101376923794</v>
+        <v>0.9782911626679104</v>
       </c>
       <c r="G1575" t="n">
-        <v>0.9983969968242989</v>
+        <v>0.001356403116930638</v>
       </c>
       <c r="H1575" t="n">
-        <v>6.0675198402806e-08</v>
+        <v>6.72085019302075e-08</v>
       </c>
     </row>
     <row r="1576">
@@ -47710,19 +47710,19 @@
         <v>0.05753424657534247</v>
       </c>
       <c r="D1576" t="n">
-        <v>170000</v>
+        <v>90000</v>
       </c>
       <c r="E1576" t="n">
-        <v>14.11379057899471</v>
+        <v>28035.01593203598</v>
       </c>
       <c r="F1576" t="n">
-        <v>0.5441900768742453</v>
+        <v>0.5622333956142321</v>
       </c>
       <c r="G1576" t="n">
-        <v>0.9986988503848908</v>
+        <v>0.004471017817655909</v>
       </c>
       <c r="H1576" t="n">
-        <v>6.006622583394684e-08</v>
+        <v>6.409693629181609e-07</v>
       </c>
     </row>
     <row r="1577">
@@ -47740,19 +47740,19 @@
         <v>0.05753424657534247</v>
       </c>
       <c r="D1577" t="n">
-        <v>175000</v>
+        <v>95000</v>
       </c>
       <c r="E1577" t="n">
-        <v>8.373273219480442</v>
+        <v>23133.76514020039</v>
       </c>
       <c r="F1577" t="n">
-        <v>0.5551579185124885</v>
+        <v>0.5116630654511987</v>
       </c>
       <c r="G1577" t="n">
-        <v>0.9991487355573597</v>
+        <v>0.02405829282224481</v>
       </c>
       <c r="H1577" t="n">
-        <v>1.198878431535864e-07</v>
+        <v>2.707155098490333e-06</v>
       </c>
     </row>
     <row r="1578">
@@ -47770,19 +47770,19 @@
         <v>0.05753424657534247</v>
       </c>
       <c r="D1578" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="E1578" t="n">
-        <v>5.622450827956344</v>
+        <v>18300.02384526314</v>
       </c>
       <c r="F1578" t="n">
-        <v>0.5709275410338022</v>
+        <v>0.4613208628481689</v>
       </c>
       <c r="G1578" t="n">
-        <v>0.9997004382869161</v>
+        <v>0.04360051672849585</v>
       </c>
       <c r="H1578" t="n">
-        <v>3.359774955632778e-08</v>
+        <v>5.109734464010107e-06</v>
       </c>
     </row>
     <row r="1579">
@@ -47800,19 +47800,19 @@
         <v>0.05753424657534247</v>
       </c>
       <c r="D1579" t="n">
-        <v>195000</v>
+        <v>105000</v>
       </c>
       <c r="E1579" t="n">
-        <v>2.397033276205237</v>
+        <v>13593.70620741217</v>
       </c>
       <c r="F1579" t="n">
-        <v>0.6255578290678568</v>
+        <v>0.4112092098243573</v>
       </c>
       <c r="G1579" t="n">
-        <v>0.9998345296535178</v>
+        <v>0.08721497619974128</v>
       </c>
       <c r="H1579" t="n">
-        <v>6.679599028124045e-09</v>
+        <v>1.233604932448804e-05</v>
       </c>
     </row>
     <row r="1580">
@@ -47830,25 +47830,25 @@
         <v>0.05753424657534247</v>
       </c>
       <c r="D1580" t="n">
-        <v>295000</v>
+        <v>110000</v>
       </c>
       <c r="E1580" t="n">
-        <v>0.004720864640282099</v>
+        <v>9195.017964003246</v>
       </c>
       <c r="F1580" t="n">
-        <v>0.7916705217196802</v>
+        <v>0.3689951938024534</v>
       </c>
       <c r="G1580" t="n">
-        <v>0.9999997680404954</v>
+        <v>0.1882329634457113</v>
       </c>
       <c r="H1580" t="n">
-        <v>1.215513245519632e-11</v>
+        <v>2.807114557389996e-05</v>
       </c>
     </row>
     <row r="1581">
       <c r="A1581" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B1581" t="inlineStr">
@@ -47857,28 +47857,28 @@
         </is>
       </c>
       <c r="C1581" t="n">
-        <v>0.07671232876712329</v>
+        <v>0.05753424657534247</v>
       </c>
       <c r="D1581" t="n">
-        <v>1000</v>
+        <v>115000</v>
       </c>
       <c r="E1581" t="n">
-        <v>116600.9672466066</v>
+        <v>5496.352011932854</v>
       </c>
       <c r="F1581" t="n">
-        <v>0</v>
+        <v>0.3437689224132798</v>
       </c>
       <c r="G1581" t="n">
-        <v>7.184484229760812e-09</v>
+        <v>0.365419919977449</v>
       </c>
       <c r="H1581" t="n">
-        <v>9.953900197604854e-10</v>
+        <v>4.280363703879517e-05</v>
       </c>
     </row>
     <row r="1582">
       <c r="A1582" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B1582" t="inlineStr">
@@ -47887,28 +47887,28 @@
         </is>
       </c>
       <c r="C1582" t="n">
-        <v>0.07671232876712329</v>
+        <v>0.05753424657534247</v>
       </c>
       <c r="D1582" t="n">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="E1582" t="n">
-        <v>107630.9221954275</v>
+        <v>2865.098859195448</v>
       </c>
       <c r="F1582" t="n">
-        <v>1.633912454931464</v>
+        <v>0.3331845916590213</v>
       </c>
       <c r="G1582" t="n">
-        <v>1.991498487952104e-05</v>
+        <v>0.5832012932897954</v>
       </c>
       <c r="H1582" t="n">
-        <v>9.953900197604854e-10</v>
+        <v>4.430891228614337e-05</v>
       </c>
     </row>
     <row r="1583">
       <c r="A1583" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B1583" t="inlineStr">
@@ -47917,28 +47917,28 @@
         </is>
       </c>
       <c r="C1583" t="n">
-        <v>0.07671232876712329</v>
+        <v>0.05753424657534247</v>
       </c>
       <c r="D1583" t="n">
-        <v>50000</v>
+        <v>125000</v>
       </c>
       <c r="E1583" t="n">
-        <v>67765.0275368001</v>
+        <v>1338.796205311333</v>
       </c>
       <c r="F1583" t="n">
-        <v>0.8789389824489844</v>
+        <v>0.3340003670229947</v>
       </c>
       <c r="G1583" t="n">
-        <v>0.002526416679192733</v>
+        <v>0.774928500887758</v>
       </c>
       <c r="H1583" t="n">
-        <v>1.251011219612103e-07</v>
+        <v>3.238197075304169e-05</v>
       </c>
     </row>
     <row r="1584">
       <c r="A1584" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B1584" t="inlineStr">
@@ -47947,28 +47947,28 @@
         </is>
       </c>
       <c r="C1584" t="n">
-        <v>0.07671232876712329</v>
+        <v>0.05753424657534247</v>
       </c>
       <c r="D1584" t="n">
-        <v>90000</v>
+        <v>130000</v>
       </c>
       <c r="E1584" t="n">
-        <v>28098.62847070732</v>
+        <v>620.0167536750806</v>
       </c>
       <c r="F1584" t="n">
-        <v>0.5346186438529187</v>
+        <v>0.3470617600018621</v>
       </c>
       <c r="G1584" t="n">
-        <v>0.007236996192568235</v>
+        <v>0.8982456354178263</v>
       </c>
       <c r="H1584" t="n">
-        <v>8.83422829660585e-07</v>
+        <v>1.694488305898562e-05</v>
       </c>
     </row>
     <row r="1585">
       <c r="A1585" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B1585" t="inlineStr">
@@ -47977,28 +47977,28 @@
         </is>
       </c>
       <c r="C1585" t="n">
-        <v>0.07671232876712329</v>
+        <v>0.05753424657534247</v>
       </c>
       <c r="D1585" t="n">
-        <v>95000</v>
+        <v>135000</v>
       </c>
       <c r="E1585" t="n">
-        <v>23239.38287042357</v>
+        <v>323.7991755536548</v>
       </c>
       <c r="F1585" t="n">
-        <v>0.4871631931643212</v>
+        <v>0.3724521517681255</v>
       </c>
       <c r="G1585" t="n">
-        <v>0.03244040881764743</v>
+        <v>0.9573989950887437</v>
       </c>
       <c r="H1585" t="n">
-        <v>3.013982412746996e-06</v>
+        <v>6.716460809381347e-06</v>
       </c>
     </row>
     <row r="1586">
       <c r="A1586" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B1586" t="inlineStr">
@@ -48007,28 +48007,28 @@
         </is>
       </c>
       <c r="C1586" t="n">
-        <v>0.07671232876712329</v>
+        <v>0.05753424657534247</v>
       </c>
       <c r="D1586" t="n">
-        <v>100000</v>
+        <v>140000</v>
       </c>
       <c r="E1586" t="n">
-        <v>18455.23604297326</v>
+        <v>195.0728839239393</v>
       </c>
       <c r="F1586" t="n">
-        <v>0.4388518077341921</v>
+        <v>0.4046503703576552</v>
       </c>
       <c r="G1586" t="n">
-        <v>0.05777415147959686</v>
+        <v>0.9799542360019396</v>
       </c>
       <c r="H1586" t="n">
-        <v>7.119514652032799e-06</v>
+        <v>2.305635555897015e-06</v>
       </c>
     </row>
     <row r="1587">
       <c r="A1587" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B1587" t="inlineStr">
@@ -48037,28 +48037,28 @@
         </is>
       </c>
       <c r="C1587" t="n">
-        <v>0.07671232876712329</v>
+        <v>0.05753424657534247</v>
       </c>
       <c r="D1587" t="n">
-        <v>105000</v>
+        <v>145000</v>
       </c>
       <c r="E1587" t="n">
-        <v>13848.48468116207</v>
+        <v>123.8432227962324</v>
       </c>
       <c r="F1587" t="n">
-        <v>0.3967531179595351</v>
+        <v>0.4353394140815709</v>
       </c>
       <c r="G1587" t="n">
-        <v>0.1139651061344202</v>
+        <v>0.9884721368600717</v>
       </c>
       <c r="H1587" t="n">
-        <v>1.535686720989653e-05</v>
+        <v>1.101524787355821e-06</v>
       </c>
     </row>
     <row r="1588">
       <c r="A1588" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B1588" t="inlineStr">
@@ -48067,28 +48067,28 @@
         </is>
       </c>
       <c r="C1588" t="n">
-        <v>0.07671232876712329</v>
+        <v>0.05753424657534247</v>
       </c>
       <c r="D1588" t="n">
-        <v>110000</v>
+        <v>150000</v>
       </c>
       <c r="E1588" t="n">
-        <v>9624.37718520483</v>
+        <v>80.0827614409765</v>
       </c>
       <c r="F1588" t="n">
-        <v>0.3654019138931953</v>
+        <v>0.4628729316597769</v>
       </c>
       <c r="G1588" t="n">
-        <v>0.2225934142472946</v>
+        <v>0.9924814689195403</v>
       </c>
       <c r="H1588" t="n">
-        <v>2.809445603525325e-05</v>
+        <v>5.022080364315629e-07</v>
       </c>
     </row>
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B1589" t="inlineStr">
@@ -48097,28 +48097,28 @@
         </is>
       </c>
       <c r="C1589" t="n">
-        <v>0.07671232876712329</v>
+        <v>0.05753424657534247</v>
       </c>
       <c r="D1589" t="n">
-        <v>115000</v>
+        <v>155000</v>
       </c>
       <c r="E1589" t="n">
-        <v>6100.293406289655</v>
+        <v>48.84607897696468</v>
       </c>
       <c r="F1589" t="n">
-        <v>0.3471901607497861</v>
+        <v>0.4833110453321262</v>
       </c>
       <c r="G1589" t="n">
-        <v>0.3876271351638171</v>
+        <v>0.9949895545493505</v>
       </c>
       <c r="H1589" t="n">
-        <v>3.791903233135574e-05</v>
+        <v>5.010262154925218e-07</v>
       </c>
     </row>
     <row r="1590">
       <c r="A1590" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B1590" t="inlineStr">
@@ -48127,28 +48127,28 @@
         </is>
       </c>
       <c r="C1590" t="n">
-        <v>0.07671232876712329</v>
+        <v>0.05753424657534247</v>
       </c>
       <c r="D1590" t="n">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="E1590" t="n">
-        <v>3521.030268355244</v>
+        <v>30.10370382458073</v>
       </c>
       <c r="F1590" t="n">
-        <v>0.3397831159438531</v>
+        <v>0.5019440696048463</v>
       </c>
       <c r="G1590" t="n">
-        <v>0.5759940007827765</v>
+        <v>0.9972437144581868</v>
       </c>
       <c r="H1590" t="n">
-        <v>3.742771391622801e-05</v>
+        <v>4.006377480420433e-07</v>
       </c>
     </row>
     <row r="1591">
       <c r="A1591" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B1591" t="inlineStr">
@@ -48157,28 +48157,28 @@
         </is>
       </c>
       <c r="C1591" t="n">
-        <v>0.07671232876712329</v>
+        <v>0.05753424657534247</v>
       </c>
       <c r="D1591" t="n">
-        <v>125000</v>
+        <v>165000</v>
       </c>
       <c r="E1591" t="n">
-        <v>1874.345692652063</v>
+        <v>21.3522053766325</v>
       </c>
       <c r="F1591" t="n">
-        <v>0.3393412852473579</v>
+        <v>0.5261101376923794</v>
       </c>
       <c r="G1591" t="n">
-        <v>0.7435568977345428</v>
+        <v>0.9983969968242989</v>
       </c>
       <c r="H1591" t="n">
-        <v>2.95974448644785e-05</v>
+        <v>6.0675198402806e-08</v>
       </c>
     </row>
     <row r="1592">
       <c r="A1592" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B1592" t="inlineStr">
@@ -48187,28 +48187,28 @@
         </is>
       </c>
       <c r="C1592" t="n">
-        <v>0.07671232876712329</v>
+        <v>0.05753424657534247</v>
       </c>
       <c r="D1592" t="n">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="E1592" t="n">
-        <v>965.1344940088075</v>
+        <v>14.11379057899471</v>
       </c>
       <c r="F1592" t="n">
-        <v>0.3462005333031071</v>
+        <v>0.5441900768742453</v>
       </c>
       <c r="G1592" t="n">
-        <v>0.8642083586599586</v>
+        <v>0.9986988503848908</v>
       </c>
       <c r="H1592" t="n">
-        <v>1.866313950568782e-05</v>
+        <v>6.006622583394684e-08</v>
       </c>
     </row>
     <row r="1593">
       <c r="A1593" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B1593" t="inlineStr">
@@ -48217,28 +48217,28 @@
         </is>
       </c>
       <c r="C1593" t="n">
-        <v>0.07671232876712329</v>
+        <v>0.05753424657534247</v>
       </c>
       <c r="D1593" t="n">
-        <v>135000</v>
+        <v>175000</v>
       </c>
       <c r="E1593" t="n">
-        <v>520.9488602689102</v>
+        <v>8.373273219480442</v>
       </c>
       <c r="F1593" t="n">
-        <v>0.361636605020753</v>
+        <v>0.5551579185124885</v>
       </c>
       <c r="G1593" t="n">
-        <v>0.9346997648234858</v>
+        <v>0.9991487355573597</v>
       </c>
       <c r="H1593" t="n">
-        <v>9.533422959723081e-06</v>
+        <v>1.198878431535864e-07</v>
       </c>
     </row>
     <row r="1594">
       <c r="A1594" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B1594" t="inlineStr">
@@ -48247,28 +48247,28 @@
         </is>
       </c>
       <c r="C1594" t="n">
-        <v>0.07671232876712329</v>
+        <v>0.05753424657534247</v>
       </c>
       <c r="D1594" t="n">
-        <v>140000</v>
+        <v>180000</v>
       </c>
       <c r="E1594" t="n">
-        <v>314.3055433485795</v>
+        <v>5.622450827956344</v>
       </c>
       <c r="F1594" t="n">
-        <v>0.3850364521574971</v>
+        <v>0.5709275410338022</v>
       </c>
       <c r="G1594" t="n">
-        <v>0.9693161676298701</v>
+        <v>0.9997004382869161</v>
       </c>
       <c r="H1594" t="n">
-        <v>4.313138162830616e-06</v>
+        <v>3.359774955632778e-08</v>
       </c>
     </row>
     <row r="1595">
       <c r="A1595" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B1595" t="inlineStr">
@@ -48277,28 +48277,28 @@
         </is>
       </c>
       <c r="C1595" t="n">
-        <v>0.07671232876712329</v>
+        <v>0.05753424657534247</v>
       </c>
       <c r="D1595" t="n">
-        <v>145000</v>
+        <v>195000</v>
       </c>
       <c r="E1595" t="n">
-        <v>215.1317928463358</v>
+        <v>2.397033276205237</v>
       </c>
       <c r="F1595" t="n">
-        <v>0.4142624326494904</v>
+        <v>0.6255578290678568</v>
       </c>
       <c r="G1595" t="n">
-        <v>0.9841090891772537</v>
+        <v>0.9998345296535178</v>
       </c>
       <c r="H1595" t="n">
-        <v>1.604030456122838e-06</v>
+        <v>6.679599028124045e-09</v>
       </c>
     </row>
     <row r="1596">
       <c r="A1596" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B1596" t="inlineStr">
@@ -48307,22 +48307,22 @@
         </is>
       </c>
       <c r="C1596" t="n">
-        <v>0.07671232876712329</v>
+        <v>0.05753424657534247</v>
       </c>
       <c r="D1596" t="n">
-        <v>150000</v>
+        <v>295000</v>
       </c>
       <c r="E1596" t="n">
-        <v>155.9253355614732</v>
+        <v>0.004720864640282099</v>
       </c>
       <c r="F1596" t="n">
-        <v>0.443452473312937</v>
+        <v>0.7916705217196802</v>
       </c>
       <c r="G1596" t="n">
-        <v>0.989129345852805</v>
+        <v>0.9999997680404954</v>
       </c>
       <c r="H1596" t="n">
-        <v>4.04072214097689e-07</v>
+        <v>1.215513245519632e-11</v>
       </c>
     </row>
     <row r="1597">
@@ -48340,19 +48340,19 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="D1597" t="n">
-        <v>155000</v>
+        <v>1000</v>
       </c>
       <c r="E1597" t="n">
-        <v>106.7870615833507</v>
+        <v>116600.9672466066</v>
       </c>
       <c r="F1597" t="n">
-        <v>0.4651510593872094</v>
+        <v>0</v>
       </c>
       <c r="G1597" t="n">
-        <v>0.9918885416549238</v>
+        <v>7.184484229760812e-09</v>
       </c>
       <c r="H1597" t="n">
-        <v>6.996061067497988e-07</v>
+        <v>9.953900197604854e-10</v>
       </c>
     </row>
     <row r="1598">
@@ -48370,19 +48370,19 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="D1598" t="n">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="E1598" t="n">
-        <v>75.08072744053912</v>
+        <v>107630.9221954275</v>
       </c>
       <c r="F1598" t="n">
-        <v>0.4859726939766442</v>
+        <v>1.633912454931464</v>
       </c>
       <c r="G1598" t="n">
-        <v>0.9948951516407997</v>
+        <v>1.991498487952104e-05</v>
       </c>
       <c r="H1598" t="n">
-        <v>5.030378876005842e-07</v>
+        <v>9.953900197604854e-10</v>
       </c>
     </row>
     <row r="1599">
@@ -48400,19 +48400,19 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="D1599" t="n">
-        <v>165000</v>
+        <v>50000</v>
       </c>
       <c r="E1599" t="n">
-        <v>55.90848370507632</v>
+        <v>67765.0275368001</v>
       </c>
       <c r="F1599" t="n">
-        <v>0.5080723145659332</v>
+        <v>0.8789389824489844</v>
       </c>
       <c r="G1599" t="n">
-        <v>0.996903389896556</v>
+        <v>0.002526416679192733</v>
       </c>
       <c r="H1599" t="n">
-        <v>3.002574147019274e-07</v>
+        <v>1.251011219612103e-07</v>
       </c>
     </row>
     <row r="1600">
@@ -48430,19 +48430,19 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="D1600" t="n">
-        <v>170000</v>
+        <v>90000</v>
       </c>
       <c r="E1600" t="n">
-        <v>44.21769151454959</v>
+        <v>28098.62847070732</v>
       </c>
       <c r="F1600" t="n">
-        <v>0.5316737608774963</v>
+        <v>0.5346186438529187</v>
       </c>
       <c r="G1600" t="n">
-        <v>0.9979084083384161</v>
+        <v>0.007236996192568235</v>
       </c>
       <c r="H1600" t="n">
-        <v>1.017499620420921e-07</v>
+        <v>8.83422829660585e-07</v>
       </c>
     </row>
     <row r="1601">
@@ -48460,19 +48460,19 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="D1601" t="n">
-        <v>175000</v>
+        <v>95000</v>
       </c>
       <c r="E1601" t="n">
-        <v>35.0621819629968</v>
+        <v>23239.38287042357</v>
       </c>
       <c r="F1601" t="n">
-        <v>0.5533998467314862</v>
+        <v>0.4871631931643212</v>
       </c>
       <c r="G1601" t="n">
-        <v>0.9986610539224848</v>
+        <v>0.03244040881764743</v>
       </c>
       <c r="H1601" t="n">
-        <v>9.965413579270382e-08</v>
+        <v>3.013982412746996e-06</v>
       </c>
     </row>
     <row r="1602">
@@ -48490,19 +48490,19 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="D1602" t="n">
-        <v>185000</v>
+        <v>100000</v>
       </c>
       <c r="E1602" t="n">
-        <v>24.20034697671705</v>
+        <v>18455.23604297326</v>
       </c>
       <c r="F1602" t="n">
-        <v>0.5972392882070138</v>
+        <v>0.4388518077341921</v>
       </c>
       <c r="G1602" t="n">
-        <v>0.9990264035216871</v>
+        <v>0.05777415147959686</v>
       </c>
       <c r="H1602" t="n">
-        <v>4.648570388822733e-08</v>
+        <v>7.119514652032799e-06</v>
       </c>
     </row>
     <row r="1603">
@@ -48520,19 +48520,19 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="D1603" t="n">
-        <v>190000</v>
+        <v>105000</v>
       </c>
       <c r="E1603" t="n">
-        <v>20.50684140486446</v>
+        <v>13848.48468116207</v>
       </c>
       <c r="F1603" t="n">
-        <v>0.6180475658694572</v>
+        <v>0.3967531179595351</v>
       </c>
       <c r="G1603" t="n">
-        <v>0.9993102492658482</v>
+        <v>0.1139651061344202</v>
       </c>
       <c r="H1603" t="n">
-        <v>2.056688988798852e-08</v>
+        <v>1.535686720989653e-05</v>
       </c>
     </row>
     <row r="1604">
@@ -48550,19 +48550,19 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="D1604" t="n">
-        <v>195000</v>
+        <v>110000</v>
       </c>
       <c r="E1604" t="n">
-        <v>17.32579675018779</v>
+        <v>9624.37718520483</v>
       </c>
       <c r="F1604" t="n">
-        <v>0.6373344054343985</v>
+        <v>0.3654019138931953</v>
       </c>
       <c r="G1604" t="n">
-        <v>0.999363402862867</v>
+        <v>0.2225934142472946</v>
       </c>
       <c r="H1604" t="n">
-        <v>6.94548919481135e-10</v>
+        <v>2.809445603525325e-05</v>
       </c>
     </row>
     <row r="1605">
@@ -48580,19 +48580,19 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="D1605" t="n">
-        <v>200000</v>
+        <v>115000</v>
       </c>
       <c r="E1605" t="n">
-        <v>14.16205802646322</v>
+        <v>6100.293406289655</v>
       </c>
       <c r="F1605" t="n">
-        <v>0.653440557448567</v>
+        <v>0.3471901607497861</v>
       </c>
       <c r="G1605" t="n">
-        <v>0.9995879798681504</v>
+        <v>0.3876271351638171</v>
       </c>
       <c r="H1605" t="n">
-        <v>2.971208439797419e-08</v>
+        <v>3.791903233135574e-05</v>
       </c>
     </row>
     <row r="1606">
@@ -48610,19 +48610,19 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="D1606" t="n">
-        <v>215000</v>
+        <v>120000</v>
       </c>
       <c r="E1606" t="n">
-        <v>9.112820814107231</v>
+        <v>3521.030268355244</v>
       </c>
       <c r="F1606" t="n">
-        <v>0.7051108487279111</v>
+        <v>0.3397831159438531</v>
       </c>
       <c r="G1606" t="n">
-        <v>0.9997932612169812</v>
+        <v>0.5759940007827765</v>
       </c>
       <c r="H1606" t="n">
-        <v>7.485779304904345e-09</v>
+        <v>3.742771391622801e-05</v>
       </c>
     </row>
     <row r="1607">
@@ -48640,19 +48640,19 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="D1607" t="n">
-        <v>250000</v>
+        <v>125000</v>
       </c>
       <c r="E1607" t="n">
-        <v>3.859523521862535</v>
+        <v>1874.345692652063</v>
       </c>
       <c r="F1607" t="n">
-        <v>0.8070002521625722</v>
+        <v>0.3393412852473579</v>
       </c>
       <c r="G1607" t="n">
-        <v>0.9999454683332122</v>
+        <v>0.7435568977345428</v>
       </c>
       <c r="H1607" t="n">
-        <v>1.921275428885492e-09</v>
+        <v>2.95974448644785e-05</v>
       </c>
     </row>
     <row r="1608">
@@ -48670,25 +48670,25 @@
         <v>0.07671232876712329</v>
       </c>
       <c r="D1608" t="n">
-        <v>350000</v>
+        <v>130000</v>
       </c>
       <c r="E1608" t="n">
-        <v>0.3416844632335571</v>
+        <v>965.1344940088075</v>
       </c>
       <c r="F1608" t="n">
-        <v>0.9745683210492244</v>
+        <v>0.3462005333031071</v>
       </c>
       <c r="G1608" t="n">
-        <v>0.9999927250131327</v>
+        <v>0.8642083586599586</v>
       </c>
       <c r="H1608" t="n">
-        <v>1.751969207196915e-10</v>
+        <v>1.866313950568782e-05</v>
       </c>
     </row>
     <row r="1609">
       <c r="A1609" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B1609" t="inlineStr">
@@ -48697,28 +48697,28 @@
         </is>
       </c>
       <c r="C1609" t="n">
-        <v>0.0958904109589041</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="D1609" t="n">
-        <v>30000</v>
+        <v>135000</v>
       </c>
       <c r="E1609" t="n">
-        <v>87623.95749093826</v>
+        <v>520.9488602689102</v>
       </c>
       <c r="F1609" t="n">
-        <v>1.001913831989304</v>
+        <v>0.361636605020753</v>
       </c>
       <c r="G1609" t="n">
-        <v>5.681334040228547e-06</v>
+        <v>0.9346997648234858</v>
       </c>
       <c r="H1609" t="n">
-        <v>1.486747534506184e-09</v>
+        <v>9.533422959723081e-06</v>
       </c>
     </row>
     <row r="1610">
       <c r="A1610" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B1610" t="inlineStr">
@@ -48727,28 +48727,28 @@
         </is>
       </c>
       <c r="C1610" t="n">
-        <v>0.0958904109589041</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="D1610" t="n">
-        <v>40000</v>
+        <v>140000</v>
       </c>
       <c r="E1610" t="n">
-        <v>77665.76288866729</v>
+        <v>314.3055433485795</v>
       </c>
       <c r="F1610" t="n">
-        <v>0.903817233812231</v>
+        <v>0.3850364521574971</v>
       </c>
       <c r="G1610" t="n">
-        <v>5.436336813453632e-05</v>
+        <v>0.9693161676298701</v>
       </c>
       <c r="H1610" t="n">
-        <v>1.066975682592797e-08</v>
+        <v>4.313138162830616e-06</v>
       </c>
     </row>
     <row r="1611">
       <c r="A1611" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B1611" t="inlineStr">
@@ -48757,28 +48757,28 @@
         </is>
       </c>
       <c r="C1611" t="n">
-        <v>0.0958904109589041</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="D1611" t="n">
-        <v>50000</v>
+        <v>145000</v>
       </c>
       <c r="E1611" t="n">
-        <v>67708.86132042618</v>
+        <v>215.1317928463358</v>
       </c>
       <c r="F1611" t="n">
-        <v>0.8188885991989489</v>
+        <v>0.4142624326494904</v>
       </c>
       <c r="G1611" t="n">
-        <v>0.0003134132845816492</v>
+        <v>0.9841090891772537</v>
       </c>
       <c r="H1611" t="n">
-        <v>4.921024796294222e-08</v>
+        <v>1.604030456122838e-06</v>
       </c>
     </row>
     <row r="1612">
       <c r="A1612" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B1612" t="inlineStr">
@@ -48787,28 +48787,28 @@
         </is>
       </c>
       <c r="C1612" t="n">
-        <v>0.0958904109589041</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="D1612" t="n">
-        <v>60000</v>
+        <v>150000</v>
       </c>
       <c r="E1612" t="n">
-        <v>57757.53142002501</v>
+        <v>155.9253355614732</v>
       </c>
       <c r="F1612" t="n">
-        <v>0.7414425864146803</v>
+        <v>0.443452473312937</v>
       </c>
       <c r="G1612" t="n">
-        <v>0.001311430521781084</v>
+        <v>0.989129345852805</v>
       </c>
       <c r="H1612" t="n">
-        <v>1.715940376968004e-07</v>
+        <v>4.04072214097689e-07</v>
       </c>
     </row>
     <row r="1613">
       <c r="A1613" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B1613" t="inlineStr">
@@ -48817,28 +48817,28 @@
         </is>
       </c>
       <c r="C1613" t="n">
-        <v>0.0958904109589041</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="D1613" t="n">
-        <v>70000</v>
+        <v>155000</v>
       </c>
       <c r="E1613" t="n">
-        <v>47824.90251144914</v>
+        <v>106.7870615833507</v>
       </c>
       <c r="F1613" t="n">
-        <v>0.6679566895674561</v>
+        <v>0.4651510593872094</v>
       </c>
       <c r="G1613" t="n">
-        <v>0.004398698306541039</v>
+        <v>0.9918885416549238</v>
       </c>
       <c r="H1613" t="n">
-        <v>4.933263271301785e-07</v>
+        <v>6.996061067497988e-07</v>
       </c>
     </row>
     <row r="1614">
       <c r="A1614" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B1614" t="inlineStr">
@@ -48847,28 +48847,28 @@
         </is>
       </c>
       <c r="C1614" t="n">
-        <v>0.0958904109589041</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="D1614" t="n">
-        <v>80000</v>
+        <v>160000</v>
       </c>
       <c r="E1614" t="n">
-        <v>37944.79254756904</v>
+        <v>75.08072744053912</v>
       </c>
       <c r="F1614" t="n">
-        <v>0.5956567583570022</v>
+        <v>0.4859726939766442</v>
       </c>
       <c r="G1614" t="n">
-        <v>0.01254877458949485</v>
+        <v>0.9948951516407997</v>
       </c>
       <c r="H1614" t="n">
-        <v>1.231457670190178e-06</v>
+        <v>5.030378876005842e-07</v>
       </c>
     </row>
     <row r="1615">
       <c r="A1615" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B1615" t="inlineStr">
@@ -48877,28 +48877,28 @@
         </is>
       </c>
       <c r="C1615" t="n">
-        <v>0.0958904109589041</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="D1615" t="n">
-        <v>90000</v>
+        <v>165000</v>
       </c>
       <c r="E1615" t="n">
-        <v>28146.7647930159</v>
+        <v>55.90848370507632</v>
       </c>
       <c r="F1615" t="n">
-        <v>0.5058371963874863</v>
+        <v>0.5080723145659332</v>
       </c>
       <c r="G1615" t="n">
-        <v>0.009894254314421813</v>
+        <v>0.996903389896556</v>
       </c>
       <c r="H1615" t="n">
-        <v>1.232410163886977e-06</v>
+        <v>3.002574147019274e-07</v>
       </c>
     </row>
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B1616" t="inlineStr">
@@ -48907,28 +48907,28 @@
         </is>
       </c>
       <c r="C1616" t="n">
-        <v>0.0958904109589041</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="D1616" t="n">
-        <v>95000</v>
+        <v>170000</v>
       </c>
       <c r="E1616" t="n">
-        <v>23339.54889774495</v>
+        <v>44.21769151454959</v>
       </c>
       <c r="F1616" t="n">
-        <v>0.4665159245205626</v>
+        <v>0.5316737608774963</v>
       </c>
       <c r="G1616" t="n">
-        <v>0.044596757043602</v>
+        <v>0.9979084083384161</v>
       </c>
       <c r="H1616" t="n">
-        <v>4.021719780576238e-06</v>
+        <v>1.017499620420921e-07</v>
       </c>
     </row>
     <row r="1617">
       <c r="A1617" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B1617" t="inlineStr">
@@ -48937,28 +48937,28 @@
         </is>
       </c>
       <c r="C1617" t="n">
-        <v>0.0958904109589041</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="D1617" t="n">
-        <v>100000</v>
+        <v>175000</v>
       </c>
       <c r="E1617" t="n">
-        <v>18632.45794016569</v>
+        <v>35.0621819629968</v>
       </c>
       <c r="F1617" t="n">
-        <v>0.4264497443130904</v>
+        <v>0.5533998467314862</v>
       </c>
       <c r="G1617" t="n">
-        <v>0.07573930509982751</v>
+        <v>0.9986610539224848</v>
       </c>
       <c r="H1617" t="n">
-        <v>8.435299441913968e-06</v>
+        <v>9.965413579270382e-08</v>
       </c>
     </row>
     <row r="1618">
       <c r="A1618" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B1618" t="inlineStr">
@@ -48967,28 +48967,28 @@
         </is>
       </c>
       <c r="C1618" t="n">
-        <v>0.0958904109589041</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="D1618" t="n">
-        <v>105000</v>
+        <v>185000</v>
       </c>
       <c r="E1618" t="n">
-        <v>14135.37262124666</v>
+        <v>24.20034697671705</v>
       </c>
       <c r="F1618" t="n">
-        <v>0.391296255754595</v>
+        <v>0.5972392882070138</v>
       </c>
       <c r="G1618" t="n">
-        <v>0.1392553935357733</v>
+        <v>0.9990264035216871</v>
       </c>
       <c r="H1618" t="n">
-        <v>1.697113593246438e-05</v>
+        <v>4.648570388822733e-08</v>
       </c>
     </row>
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B1619" t="inlineStr">
@@ -48997,28 +48997,28 @@
         </is>
       </c>
       <c r="C1619" t="n">
-        <v>0.0958904109589041</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="D1619" t="n">
-        <v>110000</v>
+        <v>190000</v>
       </c>
       <c r="E1619" t="n">
-        <v>10060.80155506151</v>
+        <v>20.50684140486446</v>
       </c>
       <c r="F1619" t="n">
-        <v>0.366203568061027</v>
+        <v>0.6180475658694572</v>
       </c>
       <c r="G1619" t="n">
-        <v>0.248711945117324</v>
+        <v>0.9993102492658482</v>
       </c>
       <c r="H1619" t="n">
-        <v>2.681148470015588e-05</v>
+        <v>2.056688988798852e-08</v>
       </c>
     </row>
     <row r="1620">
       <c r="A1620" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B1620" t="inlineStr">
@@ -49027,28 +49027,28 @@
         </is>
       </c>
       <c r="C1620" t="n">
-        <v>0.0958904109589041</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="D1620" t="n">
-        <v>115000</v>
+        <v>195000</v>
       </c>
       <c r="E1620" t="n">
-        <v>6653.730558868854</v>
+        <v>17.32579675018779</v>
       </c>
       <c r="F1620" t="n">
-        <v>0.3508368961122783</v>
+        <v>0.6373344054343985</v>
       </c>
       <c r="G1620" t="n">
-        <v>0.3998373482663889</v>
+        <v>0.999363402862867</v>
       </c>
       <c r="H1620" t="n">
-        <v>3.363867655947008e-05</v>
+        <v>6.94548919481135e-10</v>
       </c>
     </row>
     <row r="1621">
       <c r="A1621" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B1621" t="inlineStr">
@@ -49057,28 +49057,28 @@
         </is>
       </c>
       <c r="C1621" t="n">
-        <v>0.0958904109589041</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="D1621" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="E1621" t="n">
-        <v>4084.12974416789</v>
+        <v>14.16205802646322</v>
       </c>
       <c r="F1621" t="n">
-        <v>0.3432000228588789</v>
+        <v>0.653440557448567</v>
       </c>
       <c r="G1621" t="n">
-        <v>0.569033348022453</v>
+        <v>0.9995879798681504</v>
       </c>
       <c r="H1621" t="n">
-        <v>3.403972334295553e-05</v>
+        <v>2.971208439797419e-08</v>
       </c>
     </row>
     <row r="1622">
       <c r="A1622" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B1622" t="inlineStr">
@@ -49087,28 +49087,28 @@
         </is>
       </c>
       <c r="C1622" t="n">
-        <v>0.0958904109589041</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="D1622" t="n">
-        <v>125000</v>
+        <v>215000</v>
       </c>
       <c r="E1622" t="n">
-        <v>2361.983591827193</v>
+        <v>9.112820814107231</v>
       </c>
       <c r="F1622" t="n">
-        <v>0.342276129837249</v>
+        <v>0.7051108487279111</v>
       </c>
       <c r="G1622" t="n">
-        <v>0.7239221418011204</v>
+        <v>0.9997932612169812</v>
       </c>
       <c r="H1622" t="n">
-        <v>2.791579416851141e-05</v>
+        <v>7.485779304904345e-09</v>
       </c>
     </row>
     <row r="1623">
       <c r="A1623" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B1623" t="inlineStr">
@@ -49117,28 +49117,28 @@
         </is>
       </c>
       <c r="C1623" t="n">
-        <v>0.0958904109589041</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="D1623" t="n">
-        <v>130000</v>
+        <v>250000</v>
       </c>
       <c r="E1623" t="n">
-        <v>1334.830453479084</v>
+        <v>3.859523521862535</v>
       </c>
       <c r="F1623" t="n">
-        <v>0.348007656620719</v>
+        <v>0.8070002521625722</v>
       </c>
       <c r="G1623" t="n">
-        <v>0.8406623832637248</v>
+        <v>0.9999454683332122</v>
       </c>
       <c r="H1623" t="n">
-        <v>1.878030241653039e-05</v>
+        <v>1.921275428885492e-09</v>
       </c>
     </row>
     <row r="1624">
       <c r="A1624" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B1624" t="inlineStr">
@@ -49147,22 +49147,22 @@
         </is>
       </c>
       <c r="C1624" t="n">
-        <v>0.0958904109589041</v>
+        <v>0.07671232876712329</v>
       </c>
       <c r="D1624" t="n">
-        <v>135000</v>
+        <v>350000</v>
       </c>
       <c r="E1624" t="n">
-        <v>775.2326675371554</v>
+        <v>0.3416844632335571</v>
       </c>
       <c r="F1624" t="n">
-        <v>0.3603954388726298</v>
+        <v>0.9745683210492244</v>
       </c>
       <c r="G1624" t="n">
-        <v>0.9147293482651667</v>
+        <v>0.9999927250131327</v>
       </c>
       <c r="H1624" t="n">
-        <v>1.084648358404637e-05</v>
+        <v>1.751969207196915e-10</v>
       </c>
     </row>
     <row r="1625">
@@ -49180,19 +49180,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D1625" t="n">
-        <v>140000</v>
+        <v>30000</v>
       </c>
       <c r="E1625" t="n">
-        <v>485.6694817858432</v>
+        <v>87623.95749093826</v>
       </c>
       <c r="F1625" t="n">
-        <v>0.3792751146780404</v>
+        <v>1.001913831989304</v>
       </c>
       <c r="G1625" t="n">
-        <v>0.9558963539303953</v>
+        <v>5.681334040228547e-06</v>
       </c>
       <c r="H1625" t="n">
-        <v>5.620318682045055e-06</v>
+        <v>1.486747534506184e-09</v>
       </c>
     </row>
     <row r="1626">
@@ -49210,19 +49210,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D1626" t="n">
-        <v>145000</v>
+        <v>40000</v>
       </c>
       <c r="E1626" t="n">
-        <v>336.0300322841464</v>
+        <v>77665.76288866729</v>
       </c>
       <c r="F1626" t="n">
-        <v>0.403610485466832</v>
+        <v>0.903817233812231</v>
       </c>
       <c r="G1626" t="n">
-        <v>0.9759797131714422</v>
+        <v>5.436336813453632e-05</v>
       </c>
       <c r="H1626" t="n">
-        <v>2.413025014373695e-06</v>
+        <v>1.066975682592797e-08</v>
       </c>
     </row>
     <row r="1627">
@@ -49240,19 +49240,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D1627" t="n">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="E1627" t="n">
-        <v>246.4653747606321</v>
+        <v>67708.86132042618</v>
       </c>
       <c r="F1627" t="n">
-        <v>0.4289891424557652</v>
+        <v>0.8188885991989489</v>
       </c>
       <c r="G1627" t="n">
-        <v>0.9852715090550773</v>
+        <v>0.0003134132845816492</v>
       </c>
       <c r="H1627" t="n">
-        <v>1.303693339080366e-06</v>
+        <v>4.921024796294222e-08</v>
       </c>
     </row>
     <row r="1628">
@@ -49270,19 +49270,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D1628" t="n">
-        <v>155000</v>
+        <v>60000</v>
       </c>
       <c r="E1628" t="n">
-        <v>189.3575320989907</v>
+        <v>57757.53142002501</v>
       </c>
       <c r="F1628" t="n">
-        <v>0.4546004661910448</v>
+        <v>0.7414425864146803</v>
       </c>
       <c r="G1628" t="n">
-        <v>0.9902845655295986</v>
+        <v>0.001311430521781084</v>
       </c>
       <c r="H1628" t="n">
-        <v>7.015292507281789e-07</v>
+        <v>1.715940376968004e-07</v>
       </c>
     </row>
     <row r="1629">
@@ -49300,19 +49300,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D1629" t="n">
-        <v>160000</v>
+        <v>70000</v>
       </c>
       <c r="E1629" t="n">
-        <v>149.7149969053882</v>
+        <v>47824.90251144914</v>
       </c>
       <c r="F1629" t="n">
-        <v>0.4794208729404187</v>
+        <v>0.6679566895674561</v>
       </c>
       <c r="G1629" t="n">
-        <v>0.992548964839591</v>
+        <v>0.004398698306541039</v>
       </c>
       <c r="H1629" t="n">
-        <v>2.042304732687591e-07</v>
+        <v>4.933263271301785e-07</v>
       </c>
     </row>
     <row r="1630">
@@ -49330,19 +49330,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D1630" t="n">
-        <v>165000</v>
+        <v>80000</v>
       </c>
       <c r="E1630" t="n">
-        <v>115.1569938339738</v>
+        <v>37944.79254756904</v>
       </c>
       <c r="F1630" t="n">
-        <v>0.4997812403295696</v>
+        <v>0.5956567583570022</v>
       </c>
       <c r="G1630" t="n">
-        <v>0.9940554052748499</v>
+        <v>0.01254877458949485</v>
       </c>
       <c r="H1630" t="n">
-        <v>3.983457008348273e-07</v>
+        <v>1.231457670190178e-06</v>
       </c>
     </row>
     <row r="1631">
@@ -49360,19 +49360,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D1631" t="n">
-        <v>170000</v>
+        <v>90000</v>
       </c>
       <c r="E1631" t="n">
-        <v>90.51622534177356</v>
+        <v>28146.7647930159</v>
       </c>
       <c r="F1631" t="n">
-        <v>0.519595507751432</v>
+        <v>0.5058371963874863</v>
       </c>
       <c r="G1631" t="n">
-        <v>0.9955588634634059</v>
+        <v>0.009894254314421813</v>
       </c>
       <c r="H1631" t="n">
-        <v>2.030375745875801e-07</v>
+        <v>1.232410163886977e-06</v>
       </c>
     </row>
     <row r="1632">
@@ -49390,19 +49390,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D1632" t="n">
-        <v>175000</v>
+        <v>95000</v>
       </c>
       <c r="E1632" t="n">
-        <v>70.93029050626855</v>
+        <v>23339.54889774495</v>
       </c>
       <c r="F1632" t="n">
-        <v>0.5373822975240909</v>
+        <v>0.4665159245205626</v>
       </c>
       <c r="G1632" t="n">
-        <v>0.9965656636585499</v>
+        <v>0.044596757043602</v>
       </c>
       <c r="H1632" t="n">
-        <v>1.99682503470019e-07</v>
+        <v>4.021719780576238e-06</v>
       </c>
     </row>
     <row r="1633">
@@ -49420,19 +49420,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D1633" t="n">
-        <v>180000</v>
+        <v>100000</v>
       </c>
       <c r="E1633" t="n">
-        <v>56.31566130837112</v>
+        <v>18632.45794016569</v>
       </c>
       <c r="F1633" t="n">
-        <v>0.5544459532797543</v>
+        <v>0.4264497443130904</v>
       </c>
       <c r="G1633" t="n">
-        <v>0.9973166042390444</v>
+        <v>0.07573930509982751</v>
       </c>
       <c r="H1633" t="n">
-        <v>1.006937287277927e-07</v>
+        <v>8.435299441913968e-06</v>
       </c>
     </row>
     <row r="1634">
@@ -49450,19 +49450,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D1634" t="n">
-        <v>185000</v>
+        <v>105000</v>
       </c>
       <c r="E1634" t="n">
-        <v>44.20790823931471</v>
+        <v>14135.37262124666</v>
       </c>
       <c r="F1634" t="n">
-        <v>0.5693699591353295</v>
+        <v>0.391296255754595</v>
       </c>
       <c r="G1634" t="n">
-        <v>0.9978214925326258</v>
+        <v>0.1392553935357733</v>
       </c>
       <c r="H1634" t="n">
-        <v>1.012615887047102e-07</v>
+        <v>1.697113593246438e-05</v>
       </c>
     </row>
     <row r="1635">
@@ -49480,19 +49480,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D1635" t="n">
-        <v>190000</v>
+        <v>110000</v>
       </c>
       <c r="E1635" t="n">
-        <v>34.62116876961159</v>
+        <v>10060.80155506151</v>
       </c>
       <c r="F1635" t="n">
-        <v>0.5829285340532802</v>
+        <v>0.366203568061027</v>
       </c>
       <c r="G1635" t="n">
-        <v>0.9985725615718596</v>
+        <v>0.248711945117324</v>
       </c>
       <c r="H1635" t="n">
-        <v>1.991660269888118e-07</v>
+        <v>2.681148470015588e-05</v>
       </c>
     </row>
     <row r="1636">
@@ -49510,19 +49510,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D1636" t="n">
-        <v>195000</v>
+        <v>115000</v>
       </c>
       <c r="E1636" t="n">
-        <v>29.9928767130943</v>
+        <v>6653.730558868854</v>
       </c>
       <c r="F1636" t="n">
-        <v>0.6015228872733084</v>
+        <v>0.3508368961122783</v>
       </c>
       <c r="G1636" t="n">
-        <v>0.9990742202005077</v>
+        <v>0.3998373482663889</v>
       </c>
       <c r="H1636" t="n">
-        <v>1.497424470458088e-09</v>
+        <v>3.363867655947008e-05</v>
       </c>
     </row>
     <row r="1637">
@@ -49540,19 +49540,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D1637" t="n">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="E1637" t="n">
-        <v>25.40186461141791</v>
+        <v>4084.12974416789</v>
       </c>
       <c r="F1637" t="n">
-        <v>0.6175934125328618</v>
+        <v>0.3432000228588789</v>
       </c>
       <c r="G1637" t="n">
-        <v>0.9991263915351561</v>
+        <v>0.569033348022453</v>
       </c>
       <c r="H1637" t="n">
-        <v>1.937110938892517e-08</v>
+        <v>3.403972334295553e-05</v>
       </c>
     </row>
     <row r="1638">
@@ -49570,19 +49570,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D1638" t="n">
-        <v>205000</v>
+        <v>125000</v>
       </c>
       <c r="E1638" t="n">
-        <v>21.29311662221212</v>
+        <v>2361.983591827193</v>
       </c>
       <c r="F1638" t="n">
-        <v>0.6320167826700567</v>
+        <v>0.342276129837249</v>
       </c>
       <c r="G1638" t="n">
-        <v>0.9992254230611123</v>
+        <v>0.7239221418011204</v>
       </c>
       <c r="H1638" t="n">
-        <v>2.024150099351346e-08</v>
+        <v>2.791579416851141e-05</v>
       </c>
     </row>
     <row r="1639">
@@ -49600,19 +49600,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D1639" t="n">
-        <v>210000</v>
+        <v>130000</v>
       </c>
       <c r="E1639" t="n">
-        <v>17.68830205858962</v>
+        <v>1334.830453479084</v>
       </c>
       <c r="F1639" t="n">
-        <v>0.6449801287982462</v>
+        <v>0.348007656620719</v>
       </c>
       <c r="G1639" t="n">
-        <v>0.9993262146797655</v>
+        <v>0.8406623832637248</v>
       </c>
       <c r="H1639" t="n">
-        <v>2.007514646773728e-08</v>
+        <v>1.878030241653039e-05</v>
       </c>
     </row>
     <row r="1640">
@@ -49630,19 +49630,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D1640" t="n">
-        <v>215000</v>
+        <v>135000</v>
       </c>
       <c r="E1640" t="n">
-        <v>14.58327934991972</v>
+        <v>775.2326675371554</v>
       </c>
       <c r="F1640" t="n">
-        <v>0.6566739536176293</v>
+        <v>0.3603954388726298</v>
       </c>
       <c r="G1640" t="n">
-        <v>0.9996776551152575</v>
+        <v>0.9147293482651667</v>
       </c>
       <c r="H1640" t="n">
-        <v>1.72144325327316e-08</v>
+        <v>1.084648358404637e-05</v>
       </c>
     </row>
     <row r="1641">
@@ -49660,19 +49660,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D1641" t="n">
-        <v>250000</v>
+        <v>140000</v>
       </c>
       <c r="E1641" t="n">
-        <v>4.848118948487927</v>
+        <v>485.6694817858432</v>
       </c>
       <c r="F1641" t="n">
-        <v>0.7339332711259299</v>
+        <v>0.3792751146780404</v>
       </c>
       <c r="G1641" t="n">
-        <v>0.9998489555351386</v>
+        <v>0.9558963539303953</v>
       </c>
       <c r="H1641" t="n">
-        <v>5.130573541970534e-09</v>
+        <v>5.620318682045055e-06</v>
       </c>
     </row>
     <row r="1642">
@@ -49690,19 +49690,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D1642" t="n">
-        <v>300000</v>
+        <v>145000</v>
       </c>
       <c r="E1642" t="n">
-        <v>1.797883360805313</v>
+        <v>336.0300322841464</v>
       </c>
       <c r="F1642" t="n">
-        <v>0.8345688297441272</v>
+        <v>0.403610485466832</v>
       </c>
       <c r="G1642" t="n">
-        <v>0.9999789075827862</v>
+        <v>0.9759797131714422</v>
       </c>
       <c r="H1642" t="n">
-        <v>8.033402132615788e-10</v>
+        <v>2.413025014373695e-06</v>
       </c>
     </row>
     <row r="1643">
@@ -49720,18 +49720,498 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D1643" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>246.4653747606321</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>0.4289891424557652</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>0.9852715090550773</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>1.303693339080366e-06</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C1644" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>155000</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>189.3575320989907</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>0.4546004661910448</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>0.9902845655295986</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>7.015292507281789e-07</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C1645" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>160000</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>149.7149969053882</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>0.4794208729404187</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>0.992548964839591</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>2.042304732687591e-07</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C1646" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>165000</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>115.1569938339738</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>0.4997812403295696</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>0.9940554052748499</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>3.983457008348273e-07</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C1647" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>170000</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>90.51622534177356</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>0.519595507751432</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>0.9955588634634059</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>2.030375745875801e-07</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C1648" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>175000</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>70.93029050626855</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>0.5373822975240909</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>0.9965656636585499</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>1.99682503470019e-07</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C1649" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>180000</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>56.31566130837112</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>0.5544459532797543</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>0.9973166042390444</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>1.006937287277927e-07</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C1650" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>185000</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>44.20790823931471</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>0.5693699591353295</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>0.9978214925326258</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>1.012615887047102e-07</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C1651" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>190000</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>34.62116876961159</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>0.5829285340532802</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>0.9985725615718596</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>1.991660269888118e-07</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C1652" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>195000</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>29.9928767130943</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>0.6015228872733084</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>0.9990742202005077</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>1.497424470458088e-09</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C1653" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>25.40186461141791</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>0.6175934125328618</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>0.9991263915351561</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>1.937110938892517e-08</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C1654" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>205000</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>21.29311662221212</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>0.6320167826700567</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>0.9992254230611123</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>2.024150099351346e-08</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C1655" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>210000</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>17.68830205858962</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>0.6449801287982462</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>0.9993262146797655</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>2.007514646773728e-08</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C1656" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>215000</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>14.58327934991972</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>0.6566739536176293</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>0.9996776551152575</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>1.72144325327316e-08</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C1657" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>4.848118948487927</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>0.7339332711259299</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>0.9998489555351386</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>5.130573541970534e-09</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C1658" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>1.797883360805313</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>0.8345688297441272</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>0.9999789075827862</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>8.033402132615788e-10</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="C1659" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="D1659" t="n">
         <v>400000</v>
       </c>
-      <c r="E1643" t="n">
+      <c r="E1659" t="n">
         <v>1.697411677188938</v>
       </c>
-      <c r="F1643" t="n">
+      <c r="F1659" t="n">
         <v>1.060769241705314</v>
       </c>
-      <c r="G1643" t="n">
+      <c r="G1659" t="n">
         <v>0.9999989910881177</v>
       </c>
-      <c r="H1643" t="n">
+      <c r="H1659" t="n">
         <v>8.033402132615788e-10</v>
       </c>
     </row>
